--- a/.ready/夸克滴滴分享.xlsx
+++ b/.ready/夸克滴滴分享.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView windowWidth="23040" windowHeight="9300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="夸克滴滴分享" sheetId="1" r:id="rId1"/>
     <sheet name="3-31" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">夸克滴滴分享!$A$1:$E$2108</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'3-31'!$A$1:$E$345</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">夸克滴滴分享!$A$1:$E$2107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'3-31'!$A$1:$E$342</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8051" uniqueCount="5294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8033" uniqueCount="5283">
   <si>
     <t>分享名</t>
   </si>
@@ -14510,13 +14510,6 @@
 链接：https://pan.quark.cn/s/6ce384f2434b</t>
   </si>
   <si>
-    <t>老陈的IT杂货铺 - 嵌入式零基础到就业年班</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-链接：https://pan.quark.cn/s/c8169a3cc4e9</t>
-  </si>
-  <si>
     <t>【尚硅谷】SpringSecurity+OAuth2.0实战精讲 - 带源码课件</t>
   </si>
   <si>
@@ -14809,15 +14802,6 @@
     <t>2024/02/03 07:08</t>
   </si>
   <si>
-    <t>https://www.alipan.com/s/y3ii6uEZoCG</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/0319cdc2e833</t>
-  </si>
-  <si>
-    <t>2024/02/03 16:34</t>
-  </si>
-  <si>
     <t>AdGuard - DNS广告阻截 v4.4.47</t>
   </si>
   <si>
@@ -14983,15 +14967,6 @@
     <t>2024/02/08 02:16</t>
   </si>
   <si>
-    <t>https://www.alipan.com/s/A4HE5hz9tSD</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/50457409ea1b</t>
-  </si>
-  <si>
-    <t>2024/02/08 16:49</t>
-  </si>
-  <si>
     <t>VivaCut - 专业视频剪辑 v3.5.6 功能解锁</t>
   </si>
   <si>
@@ -15125,15 +15100,6 @@
   </si>
   <si>
     <t>2024/02/15 00:02</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/wx4GhdUCH2J</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c8169a3cc4e9</t>
-  </si>
-  <si>
-    <t>2024/02/15 02:22</t>
   </si>
   <si>
     <t>https://www.alipan.com/s/hcGnaiERdSV</t>
@@ -18956,10 +18922,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2108"/>
+  <dimension ref="A1:E2107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2103" workbookViewId="0">
-      <selection activeCell="A2110" sqref="A2110"/>
+    <sheetView topLeftCell="A2074" workbookViewId="0">
+      <selection activeCell="A2074" sqref="A2074"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -54220,10 +54186,10 @@
         <v>4140</v>
       </c>
       <c r="C2074" s="3">
-        <v>45337.0958333333</v>
+        <v>45337.0006944444</v>
       </c>
       <c r="D2074" s="2">
-        <v>2998</v>
+        <v>717</v>
       </c>
       <c r="E2074" s="2" t="s">
         <v>7</v>
@@ -54231,16 +54197,16 @@
     </row>
     <row r="2075" ht="42" customHeight="1" spans="1:5">
       <c r="A2075" s="2" t="s">
+        <v>3799</v>
+      </c>
+      <c r="B2075" s="2" t="s">
         <v>4141</v>
       </c>
-      <c r="B2075" s="2" t="s">
-        <v>4142</v>
-      </c>
       <c r="C2075" s="3">
-        <v>45337.0006944444</v>
+        <v>45336.9583333333</v>
       </c>
       <c r="D2075" s="2">
-        <v>717</v>
+        <v>2336</v>
       </c>
       <c r="E2075" s="2" t="s">
         <v>7</v>
@@ -54248,16 +54214,16 @@
     </row>
     <row r="2076" ht="42" customHeight="1" spans="1:5">
       <c r="A2076" s="2" t="s">
-        <v>3799</v>
+        <v>4142</v>
       </c>
       <c r="B2076" s="2" t="s">
         <v>4143</v>
       </c>
       <c r="C2076" s="3">
-        <v>45336.9583333333</v>
+        <v>45336.7138888889</v>
       </c>
       <c r="D2076" s="2">
-        <v>2336</v>
+        <v>1509</v>
       </c>
       <c r="E2076" s="2" t="s">
         <v>7</v>
@@ -54271,10 +54237,10 @@
         <v>4145</v>
       </c>
       <c r="C2077" s="3">
-        <v>45336.7138888889</v>
+        <v>45336.6354166667</v>
       </c>
       <c r="D2077" s="2">
-        <v>1509</v>
+        <v>1308</v>
       </c>
       <c r="E2077" s="2" t="s">
         <v>7</v>
@@ -54288,10 +54254,10 @@
         <v>4147</v>
       </c>
       <c r="C2078" s="3">
-        <v>45336.6354166667</v>
+        <v>45336.2729166667</v>
       </c>
       <c r="D2078" s="2">
-        <v>1308</v>
+        <v>1394</v>
       </c>
       <c r="E2078" s="2" t="s">
         <v>7</v>
@@ -54305,10 +54271,10 @@
         <v>4149</v>
       </c>
       <c r="C2079" s="3">
-        <v>45336.2729166667</v>
+        <v>45335.9465277778</v>
       </c>
       <c r="D2079" s="2">
-        <v>1394</v>
+        <v>1192</v>
       </c>
       <c r="E2079" s="2" t="s">
         <v>7</v>
@@ -54322,10 +54288,10 @@
         <v>4151</v>
       </c>
       <c r="C2080" s="3">
-        <v>45335.9465277778</v>
+        <v>45335.1</v>
       </c>
       <c r="D2080" s="2">
-        <v>1192</v>
+        <v>1044</v>
       </c>
       <c r="E2080" s="2" t="s">
         <v>7</v>
@@ -54339,10 +54305,10 @@
         <v>4153</v>
       </c>
       <c r="C2081" s="3">
-        <v>45335.1</v>
+        <v>45331.6208333333</v>
       </c>
       <c r="D2081" s="2">
-        <v>1044</v>
+        <v>1171</v>
       </c>
       <c r="E2081" s="2" t="s">
         <v>7</v>
@@ -54356,10 +54322,10 @@
         <v>4155</v>
       </c>
       <c r="C2082" s="3">
-        <v>45331.6208333333</v>
+        <v>45331.4097222222</v>
       </c>
       <c r="D2082" s="2">
-        <v>1171</v>
+        <v>1038</v>
       </c>
       <c r="E2082" s="2" t="s">
         <v>7</v>
@@ -54373,10 +54339,10 @@
         <v>4157</v>
       </c>
       <c r="C2083" s="3">
-        <v>45331.4097222222</v>
+        <v>45331.2833333333</v>
       </c>
       <c r="D2083" s="2">
-        <v>1038</v>
+        <v>1139</v>
       </c>
       <c r="E2083" s="2" t="s">
         <v>7</v>
@@ -54390,10 +54356,10 @@
         <v>4159</v>
       </c>
       <c r="C2084" s="3">
-        <v>45331.2833333333</v>
+        <v>45331.0222222222</v>
       </c>
       <c r="D2084" s="2">
-        <v>1139</v>
+        <v>4937</v>
       </c>
       <c r="E2084" s="2" t="s">
         <v>7</v>
@@ -54407,10 +54373,10 @@
         <v>4161</v>
       </c>
       <c r="C2085" s="3">
-        <v>45331.0222222222</v>
+        <v>45330.9152777778</v>
       </c>
       <c r="D2085" s="2">
-        <v>4937</v>
+        <v>709</v>
       </c>
       <c r="E2085" s="2" t="s">
         <v>7</v>
@@ -54424,10 +54390,10 @@
         <v>4163</v>
       </c>
       <c r="C2086" s="3">
-        <v>45330.9152777778</v>
+        <v>45330.8673611111</v>
       </c>
       <c r="D2086" s="2">
-        <v>709</v>
+        <v>4663</v>
       </c>
       <c r="E2086" s="2" t="s">
         <v>7</v>
@@ -54441,10 +54407,10 @@
         <v>4165</v>
       </c>
       <c r="C2087" s="3">
-        <v>45330.8673611111</v>
+        <v>45330.6993055556</v>
       </c>
       <c r="D2087" s="2">
-        <v>4663</v>
+        <v>1775</v>
       </c>
       <c r="E2087" s="2" t="s">
         <v>7</v>
@@ -54458,10 +54424,10 @@
         <v>4167</v>
       </c>
       <c r="C2088" s="3">
-        <v>45330.6993055556</v>
+        <v>45330.0930555556</v>
       </c>
       <c r="D2088" s="2">
-        <v>1775</v>
+        <v>8959</v>
       </c>
       <c r="E2088" s="2" t="s">
         <v>7</v>
@@ -54475,10 +54441,10 @@
         <v>4169</v>
       </c>
       <c r="C2089" s="3">
-        <v>45330.0930555556</v>
+        <v>45329.9243055556</v>
       </c>
       <c r="D2089" s="2">
-        <v>8959</v>
+        <v>661</v>
       </c>
       <c r="E2089" s="2" t="s">
         <v>7</v>
@@ -54492,10 +54458,10 @@
         <v>4171</v>
       </c>
       <c r="C2090" s="3">
-        <v>45329.9243055556</v>
+        <v>45329.8763888889</v>
       </c>
       <c r="D2090" s="2">
-        <v>661</v>
+        <v>1148</v>
       </c>
       <c r="E2090" s="2" t="s">
         <v>7</v>
@@ -54509,10 +54475,10 @@
         <v>4173</v>
       </c>
       <c r="C2091" s="3">
-        <v>45329.8763888889</v>
+        <v>45329.1590277778</v>
       </c>
       <c r="D2091" s="2">
-        <v>1148</v>
+        <v>2051</v>
       </c>
       <c r="E2091" s="2" t="s">
         <v>7</v>
@@ -54526,10 +54492,10 @@
         <v>4175</v>
       </c>
       <c r="C2092" s="3">
-        <v>45329.1590277778</v>
+        <v>45329.0791666667</v>
       </c>
       <c r="D2092" s="2">
-        <v>2051</v>
+        <v>4157</v>
       </c>
       <c r="E2092" s="2" t="s">
         <v>7</v>
@@ -54543,10 +54509,10 @@
         <v>4177</v>
       </c>
       <c r="C2093" s="3">
-        <v>45329.0791666667</v>
+        <v>45328.9708333333</v>
       </c>
       <c r="D2093" s="2">
-        <v>4157</v>
+        <v>4653</v>
       </c>
       <c r="E2093" s="2" t="s">
         <v>7</v>
@@ -54560,10 +54526,10 @@
         <v>4179</v>
       </c>
       <c r="C2094" s="3">
-        <v>45328.9708333333</v>
+        <v>45327.8701388889</v>
       </c>
       <c r="D2094" s="2">
-        <v>4653</v>
+        <v>8842</v>
       </c>
       <c r="E2094" s="2" t="s">
         <v>7</v>
@@ -54577,10 +54543,10 @@
         <v>4181</v>
       </c>
       <c r="C2095" s="3">
-        <v>45327.8701388889</v>
+        <v>45327.8416666667</v>
       </c>
       <c r="D2095" s="2">
-        <v>8842</v>
+        <v>1217</v>
       </c>
       <c r="E2095" s="2" t="s">
         <v>7</v>
@@ -54594,10 +54560,10 @@
         <v>4183</v>
       </c>
       <c r="C2096" s="3">
-        <v>45327.8416666667</v>
+        <v>45327.6138888889</v>
       </c>
       <c r="D2096" s="2">
-        <v>1217</v>
+        <v>1675</v>
       </c>
       <c r="E2096" s="2" t="s">
         <v>7</v>
@@ -54611,10 +54577,10 @@
         <v>4185</v>
       </c>
       <c r="C2097" s="3">
-        <v>45327.6138888889</v>
+        <v>45327.0701388889</v>
       </c>
       <c r="D2097" s="2">
-        <v>1675</v>
+        <v>6362</v>
       </c>
       <c r="E2097" s="2" t="s">
         <v>7</v>
@@ -54628,10 +54594,10 @@
         <v>4187</v>
       </c>
       <c r="C2098" s="3">
-        <v>45327.0701388889</v>
+        <v>45326.9645833333</v>
       </c>
       <c r="D2098" s="2">
-        <v>6362</v>
+        <v>8211</v>
       </c>
       <c r="E2098" s="2" t="s">
         <v>7</v>
@@ -54645,10 +54611,10 @@
         <v>4189</v>
       </c>
       <c r="C2099" s="3">
-        <v>45326.9645833333</v>
+        <v>45326.9368055556</v>
       </c>
       <c r="D2099" s="2">
-        <v>8211</v>
+        <v>3454</v>
       </c>
       <c r="E2099" s="2" t="s">
         <v>7</v>
@@ -54662,10 +54628,10 @@
         <v>4191</v>
       </c>
       <c r="C2100" s="3">
-        <v>45326.9368055556</v>
+        <v>45326.875</v>
       </c>
       <c r="D2100" s="2">
-        <v>3454</v>
+        <v>42490</v>
       </c>
       <c r="E2100" s="2" t="s">
         <v>7</v>
@@ -54679,10 +54645,10 @@
         <v>4193</v>
       </c>
       <c r="C2101" s="3">
-        <v>45326.875</v>
+        <v>45325.8881944444</v>
       </c>
       <c r="D2101" s="2">
-        <v>42490</v>
+        <v>7050</v>
       </c>
       <c r="E2101" s="2" t="s">
         <v>7</v>
@@ -54696,10 +54662,10 @@
         <v>4195</v>
       </c>
       <c r="C2102" s="3">
-        <v>45325.8881944444</v>
+        <v>45325.7375</v>
       </c>
       <c r="D2102" s="2">
-        <v>7050</v>
+        <v>9915</v>
       </c>
       <c r="E2102" s="2" t="s">
         <v>7</v>
@@ -54713,10 +54679,10 @@
         <v>4197</v>
       </c>
       <c r="C2103" s="3">
-        <v>45325.7375</v>
+        <v>45325.6888888889</v>
       </c>
       <c r="D2103" s="2">
-        <v>9915</v>
+        <v>1748</v>
       </c>
       <c r="E2103" s="2" t="s">
         <v>7</v>
@@ -54730,10 +54696,10 @@
         <v>4199</v>
       </c>
       <c r="C2104" s="3">
-        <v>45325.6888888889</v>
+        <v>45325.2909722222</v>
       </c>
       <c r="D2104" s="2">
-        <v>1748</v>
+        <v>1546</v>
       </c>
       <c r="E2104" s="2" t="s">
         <v>7</v>
@@ -54747,10 +54713,10 @@
         <v>4201</v>
       </c>
       <c r="C2105" s="3">
-        <v>45325.2909722222</v>
+        <v>45324.9118055556</v>
       </c>
       <c r="D2105" s="2">
-        <v>1546</v>
+        <v>6107</v>
       </c>
       <c r="E2105" s="2" t="s">
         <v>7</v>
@@ -54764,10 +54730,10 @@
         <v>4203</v>
       </c>
       <c r="C2106" s="3">
-        <v>45324.9118055556</v>
+        <v>45323.8986111111</v>
       </c>
       <c r="D2106" s="2">
-        <v>6107</v>
+        <v>5300</v>
       </c>
       <c r="E2106" s="2" t="s">
         <v>7</v>
@@ -54781,34 +54747,17 @@
         <v>4205</v>
       </c>
       <c r="C2107" s="3">
-        <v>45323.8986111111</v>
+        <v>45323.7333333333</v>
       </c>
       <c r="D2107" s="2">
-        <v>5300</v>
+        <v>1680</v>
       </c>
       <c r="E2107" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2108" ht="42" customHeight="1" spans="1:5">
-      <c r="A2108" s="2" t="s">
-        <v>4206</v>
-      </c>
-      <c r="B2108" s="2" t="s">
-        <v>4207</v>
-      </c>
-      <c r="C2108" s="3">
-        <v>45323.7333333333</v>
-      </c>
-      <c r="D2108" s="2">
-        <v>1680</v>
-      </c>
-      <c r="E2108" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E2108">
+  <autoFilter ref="A1:E2107">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -54819,11 +54768,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E345"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E342"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.5555555555556" defaultRowHeight="43.8" customHeight="1" outlineLevelCol="4"/>
@@ -54833,492 +54782,492 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>4206</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4207</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4208</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4209</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4210</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>4211</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>4212</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4213</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4214</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4215</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>4216</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>4217</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>4218</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>4219</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>4220</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4222</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>4200</v>
+        <v>4198</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>4221</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4222</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>4223</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4224</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="5" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>4225</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>4226</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>4198</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>4227</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="6" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>4228</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>4229</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>4230</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="7" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>4231</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4232</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>4219</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>4231</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4232</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>4233</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="8" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>4234</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4235</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>4219</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>4234</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4235</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>4236</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>4237</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4238</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4239</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4214</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>4241</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4242</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>4219</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>4237</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>4238</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>4239</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>4244</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4245</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>4219</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>4240</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4241</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>4242</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>4243</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>4244</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>4216</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>4245</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>4246</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4247</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>4248</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A12" s="1" t="s">
+        <v>4247</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4248</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>4249</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>4250</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>4251</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A13" s="1" t="s">
+        <v>4251</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>4252</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>4253</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>4254</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E13" s="1" t="s">
+    </row>
+    <row r="14" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A14" s="1" t="s">
         <v>4255</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>4256</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>4257</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>4214</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>4258</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E14" s="1" t="s">
+    </row>
+    <row r="15" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A15" s="1" t="s">
         <v>4259</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>4260</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>4261</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>4262</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>4216</v>
-      </c>
-      <c r="E15" s="1" t="s">
+    </row>
+    <row r="16" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A16" s="1" t="s">
         <v>4263</v>
       </c>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>4264</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>4219</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4265</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>4214</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>4266</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>4267</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A17" s="1" t="s">
+        <v>4172</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4267</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>4268</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>4269</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>4270</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>4216</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>4271</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>4174</v>
+        <v>4270</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>4271</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>4272</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>4273</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>4274</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A19" s="1" t="s">
+        <v>4168</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4274</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>4275</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>4276</v>
       </c>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="20" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A20" s="1" t="s">
         <v>4277</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>4278</v>
       </c>
-    </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>4170</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>4279</v>
       </c>
-      <c r="C20" s="1" t="s">
+    </row>
+    <row r="21" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A21" s="1" t="s">
         <v>4280</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>4281</v>
       </c>
-    </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A21" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>4282</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>4283</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>4284</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>4166</v>
+        <v>4160</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>4283</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4284</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>4285</v>
       </c>
-      <c r="C22" s="1" t="s">
+    </row>
+    <row r="23" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A23" s="1" t="s">
         <v>4286</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4242</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>4287</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A23" s="1" t="s">
+    <row r="24" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A24" s="1" t="s">
         <v>4288</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4289</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>4219</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>4289</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>4290</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A24" s="1" t="s">
-        <v>4162</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>4291</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>4292</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>4293</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>4294</v>
+        <v>4156</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>4219</v>
+        <v>4291</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>4247</v>
+        <v>4292</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>4221</v>
+        <v>4223</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>4295</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A26" s="1" t="s">
+        <v>4154</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4294</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4295</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>4296</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="27" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>4297</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4235</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>4219</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>4297</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>4298</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A27" s="1" t="s">
-        <v>4158</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>4299</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>4300</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>4301</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>4156</v>
+        <v>4299</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>4300</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4301</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>4302</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>4303</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>4304</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A29" s="1" t="s">
+        <v>4303</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4304</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>4305</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>4240</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>4221</v>
+        <v>4223</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>4306</v>
@@ -55326,262 +55275,262 @@
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A30" s="1" t="s">
+        <v>4146</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>4307</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>4308</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>4309</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E30" s="1" t="s">
+    </row>
+    <row r="31" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A31" s="1" t="s">
         <v>4310</v>
       </c>
-    </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4226</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>4311</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>4313</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>4314</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>4148</v>
+        <v>4312</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>4313</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4314</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>4315</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>4316</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>4317</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A33" s="1" t="s">
+        <v>4142</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>4316</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4317</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>4318</v>
       </c>
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="34" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4320</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>4219</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>4231</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>4319</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A34" s="1" t="s">
-        <v>4320</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>4321</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>4322</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>4323</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>4144</v>
+        <v>4139</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>4322</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4323</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>4324</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>4325</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>4326</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A36" s="1" t="s">
+        <v>4137</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>4325</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4326</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>4327</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>4328</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>4329</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>4141</v>
+        <v>4135</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>4328</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>4329</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>4330</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>4331</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>4332</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>4139</v>
+        <v>4133</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>4331</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>4332</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>4333</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>4334</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>4335</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>4137</v>
+        <v>4334</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>4335</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>4336</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>4337</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>4338</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>4135</v>
+        <v>4129</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>4338</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>4339</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>4340</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>4341</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>4133</v>
+        <v>4127</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>4341</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>4342</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>4343</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>4344</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A42" s="1" t="s">
+        <v>4125</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>4344</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>4345</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="D42" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>4346</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>4347</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>4348</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>4129</v>
+        <v>4123</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>4347</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>4348</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>4349</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>4350</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>4351</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>4127</v>
+        <v>4350</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>4351</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>4352</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>4353</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>4354</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>4125</v>
+        <v>4354</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>4355</v>
@@ -55590,7 +55539,7 @@
         <v>4356</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>4357</v>
@@ -55598,58 +55547,58 @@
     </row>
     <row r="46" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>4123</v>
+        <v>4358</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>4358</v>
+        <v>4359</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>4359</v>
+        <v>4360</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>4360</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>4362</v>
+        <v>4363</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>4363</v>
+        <v>4364</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>4364</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>4365</v>
+        <v>4366</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>4366</v>
+        <v>4367</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>4367</v>
+        <v>4368</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>4368</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>4369</v>
+        <v>4111</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>4370</v>
@@ -55658,364 +55607,364 @@
         <v>4371</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>4372</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="50" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>4373</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>4374</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>4375</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E50" s="1" t="s">
+    </row>
+    <row r="51" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A51" s="1" t="s">
         <v>4376</v>
       </c>
-    </row>
-    <row r="51" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A51" s="1" t="s">
+      <c r="B51" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>4377</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="D51" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>4378</v>
       </c>
-      <c r="C51" s="1" t="s">
+    </row>
+    <row r="52" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A52" s="1" t="s">
         <v>4379</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E51" s="1" t="s">
+      <c r="B52" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>4380</v>
       </c>
-    </row>
-    <row r="52" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A52" s="1" t="s">
-        <v>4111</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="D52" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>4381</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>4382</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>4383</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A53" s="1" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>4382</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>4383</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>4384</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>4385</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>4386</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A54" s="1" t="s">
+        <v>4099</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>4385</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>4386</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>4387</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>4388</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>4389</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A55" s="1" t="s">
+        <v>4097</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>4388</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>4389</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>4390</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>4391</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>4392</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>4101</v>
+        <v>4095</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>4391</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>4392</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>4393</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>4394</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>4395</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>4099</v>
+        <v>4093</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>4394</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>4395</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>4396</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>4397</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>4398</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>4097</v>
+        <v>4091</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>4397</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>4398</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>4399</v>
       </c>
-      <c r="C58" s="1" t="s">
+    </row>
+    <row r="59" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A59" s="1" t="s">
         <v>4400</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E58" s="1" t="s">
+      <c r="B59" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>4260</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>4261</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>4401</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A59" s="1" t="s">
-        <v>4095</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>4402</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>4403</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>4404</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>4093</v>
+        <v>4089</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>4405</v>
+        <v>4402</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>4406</v>
+        <v>4403</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>4407</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>4091</v>
+        <v>4087</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>4408</v>
+        <v>4405</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>4409</v>
+        <v>4406</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>4410</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>4411</v>
+        <v>4085</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>4219</v>
+        <v>4408</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>4265</v>
+        <v>4409</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>4266</v>
+        <v>4223</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>4412</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>4089</v>
+        <v>4083</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>4411</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>4412</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>4413</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>4414</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>4415</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>4087</v>
+        <v>4081</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>4414</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>4415</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>4416</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>4417</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>4418</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>4085</v>
+        <v>4079</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>4417</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>4418</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>4419</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>4420</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>4421</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>4083</v>
+        <v>4077</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>4420</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>4421</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>4422</v>
       </c>
-      <c r="C66" s="1" t="s">
+    </row>
+    <row r="67" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A67" s="1" t="s">
         <v>4423</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E66" s="1" t="s">
+      <c r="B67" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>4229</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>4424</v>
-      </c>
-    </row>
-    <row r="67" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A67" s="1" t="s">
-        <v>4081</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>4425</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>4426</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>4427</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>4079</v>
+        <v>4425</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>4426</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>4427</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>4428</v>
       </c>
-      <c r="C68" s="1" t="s">
+    </row>
+    <row r="69" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A69" s="1" t="s">
         <v>4429</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E68" s="1" t="s">
+      <c r="B69" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>4430</v>
       </c>
-    </row>
-    <row r="69" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A69" s="1" t="s">
-        <v>4077</v>
-      </c>
-      <c r="B69" s="1" t="s">
+      <c r="D69" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>4431</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>4432</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>4433</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A70" s="1" t="s">
+        <v>4432</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>4433</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>4434</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>4234</v>
-      </c>
       <c r="D70" s="1" t="s">
-        <v>4221</v>
+        <v>4223</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>4435</v>
@@ -56023,330 +55972,330 @@
     </row>
     <row r="71" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A71" s="1" t="s">
+        <v>4069</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>4436</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>4437</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>4438</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E71" s="1" t="s">
+    </row>
+    <row r="72" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A72" s="1" t="s">
         <v>4439</v>
       </c>
-    </row>
-    <row r="72" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A72" s="1" t="s">
+      <c r="B72" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>4440</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>4219</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>4441</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>4442</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A73" s="1" t="s">
+        <v>4065</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>4442</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>4443</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="D73" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>4444</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>4445</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>4446</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>4069</v>
+        <v>4063</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>4445</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>4446</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>4447</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>4448</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>4449</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A75" s="1" t="s">
+        <v>4061</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>4448</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>4449</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>4450</v>
       </c>
-      <c r="B75" s="1" t="s">
+    </row>
+    <row r="76" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A76" s="1" t="s">
+        <v>4451</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>4289</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>4219</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>4451</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E75" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>4452</v>
-      </c>
-    </row>
-    <row r="76" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A76" s="1" t="s">
-        <v>4065</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>4453</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>4454</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>4455</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A77" s="1" t="s">
-        <v>4063</v>
+        <v>4057</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>4456</v>
+        <v>4453</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>4457</v>
+        <v>4454</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>4458</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>4061</v>
+        <v>4456</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>4457</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>4458</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>4459</v>
       </c>
-      <c r="C78" s="1" t="s">
+    </row>
+    <row r="79" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A79" s="1" t="s">
         <v>4460</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E78" s="1" t="s">
+      <c r="B79" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>4461</v>
       </c>
-    </row>
-    <row r="79" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A79" s="1" t="s">
+      <c r="D79" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>4462</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>4297</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>4463</v>
       </c>
     </row>
     <row r="80" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>4057</v>
+        <v>4051</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>4463</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>4464</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>4465</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>4466</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A81" s="1" t="s">
+        <v>4049</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>4466</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>4467</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="D81" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>4468</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>4469</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>4470</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A82" s="1" t="s">
+        <v>4047</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>4469</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>4470</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>4471</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>4472</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>4473</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>4051</v>
+        <v>4472</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>4473</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>4474</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>4475</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>4476</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>4049</v>
+        <v>4043</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>4476</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>4477</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>4478</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E84" s="1" t="s">
+    </row>
+    <row r="85" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A85" s="1" t="s">
         <v>4479</v>
       </c>
-    </row>
-    <row r="85" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A85" s="1" t="s">
-        <v>4047</v>
-      </c>
       <c r="B85" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>4480</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>4481</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>4482</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A86" s="1" t="s">
+        <v>4041</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>4482</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>4483</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>4484</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>4485</v>
-      </c>
       <c r="D86" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>4486</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A87" s="1" t="s">
-        <v>4043</v>
+        <v>4037</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>4487</v>
+        <v>4484</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>4488</v>
+        <v>4485</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>4489</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A88" s="1" t="s">
+        <v>4487</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>4488</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>4489</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>4490</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>4491</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>4492</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A89" s="1" t="s">
-        <v>4041</v>
+        <v>4491</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>4492</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>4493</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>4494</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>4492</v>
       </c>
     </row>
     <row r="90" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>4037</v>
+        <v>4031</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>4495</v>
@@ -56355,7 +56304,7 @@
         <v>4496</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>4497</v>
@@ -56363,58 +56312,58 @@
     </row>
     <row r="91" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A91" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>4498</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>4499</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>4500</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>4501</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A92" s="1" t="s">
+        <v>4027</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>4501</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>4502</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="D92" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>4503</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>4504</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>4505</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A93" s="1" t="s">
-        <v>4031</v>
+        <v>4504</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>4505</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>4506</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>4507</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>4508</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A94" s="1" t="s">
-        <v>4029</v>
+        <v>4508</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>4509</v>
@@ -56423,7 +56372,7 @@
         <v>4510</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>4511</v>
@@ -56431,211 +56380,211 @@
     </row>
     <row r="95" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A95" s="1" t="s">
-        <v>4027</v>
+        <v>4512</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>4512</v>
+        <v>4513</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>4513</v>
+        <v>4514</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>4514</v>
-      </c>
-    </row>
-    <row r="96" s="1" customFormat="1" customHeight="1" spans="1:5">
+        <v>4515</v>
+      </c>
+    </row>
+    <row r="96" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
       <c r="A96" s="1" t="s">
-        <v>4515</v>
+        <v>4516</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>4516</v>
+        <v>4217</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>4235</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>4517</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>4518</v>
       </c>
     </row>
     <row r="97" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A97" s="1" t="s">
+        <v>4019</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>4518</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>4519</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="D97" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>4520</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>4521</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>4522</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A98" s="1" t="s">
+        <v>4017</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>4521</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>4522</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>4523</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>4524</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>4525</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>4526</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A99" s="1" t="s">
-        <v>4527</v>
+        <v>4015</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>4219</v>
+        <v>4524</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>4240</v>
+        <v>4525</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>4221</v>
+        <v>4223</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>4528</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A100" s="1" t="s">
-        <v>4019</v>
+        <v>4013</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>4527</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>4528</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>4529</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>4530</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>4531</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A101" s="1" t="s">
-        <v>4017</v>
+        <v>4011</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>4530</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>4531</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>4532</v>
       </c>
-      <c r="C101" s="1" t="s">
+    </row>
+    <row r="102" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A102" s="1" t="s">
         <v>4533</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E101" s="1" t="s">
+      <c r="B102" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>4380</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>4534</v>
-      </c>
-    </row>
-    <row r="102" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A102" s="1" t="s">
-        <v>4015</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>4535</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>4536</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>4537</v>
       </c>
     </row>
     <row r="103" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A103" s="1" t="s">
-        <v>4013</v>
+        <v>4009</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>4538</v>
+        <v>4535</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>4539</v>
+        <v>4536</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>4540</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="104" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A104" s="1" t="s">
-        <v>4011</v>
+        <v>4007</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>4541</v>
+        <v>4538</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>4542</v>
+        <v>4539</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>4543</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="105" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>4544</v>
+        <v>4005</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>4219</v>
+        <v>4541</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>4391</v>
+        <v>4542</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>4221</v>
+        <v>4223</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>4545</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="106" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>4009</v>
+        <v>4544</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>4545</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>4546</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>4547</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>4548</v>
       </c>
     </row>
     <row r="107" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>4007</v>
+        <v>4548</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>4549</v>
@@ -56644,7 +56593,7 @@
         <v>4550</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>4551</v>
@@ -56652,41 +56601,41 @@
     </row>
     <row r="108" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A108" s="1" t="s">
-        <v>4005</v>
+        <v>4552</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>4552</v>
+        <v>4553</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>4553</v>
+        <v>4554</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>4554</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="109" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A109" s="1" t="s">
-        <v>4555</v>
+        <v>4556</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>4556</v>
+        <v>4557</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>4557</v>
+        <v>4558</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>4558</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A110" s="1" t="s">
-        <v>4559</v>
+        <v>3995</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>4560</v>
@@ -56695,7 +56644,7 @@
         <v>4561</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>4562</v>
@@ -56703,101 +56652,101 @@
     </row>
     <row r="111" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A111" s="1" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>4563</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>4564</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>4565</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E111" s="1" t="s">
+    </row>
+    <row r="112" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A112" s="1" t="s">
         <v>4566</v>
       </c>
-    </row>
-    <row r="112" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A112" s="1" t="s">
+      <c r="B112" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>4260</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>4261</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>4567</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>4568</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>4569</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>4570</v>
       </c>
     </row>
     <row r="113" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A113" s="1" t="s">
-        <v>3995</v>
+        <v>3991</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>4571</v>
+        <v>4568</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>4572</v>
+        <v>4569</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>4573</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="114" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A114" s="1" t="s">
-        <v>3993</v>
+        <v>4571</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>4572</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>4573</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>4574</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>4575</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>4576</v>
       </c>
     </row>
     <row r="115" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A115" s="1" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>4576</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>4577</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>4265</v>
-      </c>
       <c r="D115" s="1" t="s">
-        <v>4266</v>
+        <v>4223</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>4578</v>
       </c>
     </row>
-    <row r="116" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="116" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
       <c r="A116" s="1" t="s">
-        <v>3991</v>
+        <v>4579</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>4579</v>
+        <v>4217</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>4580</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>4225</v>
+        <v>4219</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>4581</v>
@@ -56805,160 +56754,160 @@
     </row>
     <row r="117" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A117" s="1" t="s">
+        <v>3983</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>4582</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>4583</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="D117" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>4584</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>4585</v>
       </c>
     </row>
     <row r="118" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A118" s="1" t="s">
+        <v>3981</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>4585</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>4586</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="D118" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E118" s="1" t="s">
         <v>4587</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>4588</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>4589</v>
       </c>
     </row>
     <row r="119" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A119" s="1" t="s">
+        <v>3979</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>4588</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>4589</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>4590</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>4591</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>4592</v>
       </c>
     </row>
     <row r="120" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A120" s="1" t="s">
-        <v>3983</v>
+        <v>3977</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>4591</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>4592</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>4593</v>
       </c>
-      <c r="C120" s="1" t="s">
+    </row>
+    <row r="121" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A121" s="1" t="s">
         <v>4594</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E120" s="1" t="s">
+      <c r="B121" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>4595</v>
       </c>
-    </row>
-    <row r="121" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A121" s="1" t="s">
-        <v>3981</v>
-      </c>
-      <c r="B121" s="1" t="s">
+      <c r="D121" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>4596</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>4597</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>4598</v>
       </c>
     </row>
     <row r="122" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A122" s="1" t="s">
-        <v>3979</v>
+        <v>4597</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>4598</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>4599</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="D122" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>4600</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>4601</v>
       </c>
     </row>
     <row r="123" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A123" s="1" t="s">
-        <v>3977</v>
+        <v>3971</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>4601</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>4602</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="D123" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>4603</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>4604</v>
       </c>
     </row>
     <row r="124" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A124" s="1" t="s">
+        <v>3969</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>4604</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>4605</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C124" s="1" t="s">
+      <c r="D124" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>4606</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>4607</v>
       </c>
     </row>
     <row r="125" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A125" s="1" t="s">
+        <v>4607</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>4608</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>4609</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="D125" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>4610</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>4611</v>
       </c>
     </row>
     <row r="126" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A126" s="1" t="s">
-        <v>3971</v>
+        <v>4611</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>4612</v>
@@ -56967,7 +56916,7 @@
         <v>4613</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>4614</v>
@@ -56975,7 +56924,7 @@
     </row>
     <row r="127" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A127" s="1" t="s">
-        <v>3969</v>
+        <v>3964</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>4615</v>
@@ -56984,7 +56933,7 @@
         <v>4616</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>4617</v>
@@ -57001,83 +56950,83 @@
         <v>4620</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>4621</v>
       </c>
     </row>
-    <row r="129" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="129" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
       <c r="A129" s="1" t="s">
         <v>4622</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>4623</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="D129" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>4624</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>4625</v>
       </c>
     </row>
     <row r="130" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A130" s="1" t="s">
-        <v>3964</v>
+        <v>3961</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>4625</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>4626</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>4627</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>4628</v>
       </c>
     </row>
     <row r="131" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A131" s="1" t="s">
+        <v>3959</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>4628</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>4629</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="D131" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>4630</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>4631</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>4632</v>
       </c>
     </row>
     <row r="132" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A132" s="1" t="s">
+        <v>4631</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>4632</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>4633</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C132" s="1" t="s">
+      <c r="D132" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>4634</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>4635</v>
       </c>
     </row>
     <row r="133" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A133" s="1" t="s">
-        <v>3961</v>
+        <v>4635</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>4636</v>
@@ -57086,7 +57035,7 @@
         <v>4637</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>4638</v>
@@ -57094,7 +57043,7 @@
     </row>
     <row r="134" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A134" s="1" t="s">
-        <v>3959</v>
+        <v>3953</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>4639</v>
@@ -57103,7 +57052,7 @@
         <v>4640</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>4641</v>
@@ -57120,7 +57069,7 @@
         <v>4644</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>4645</v>
@@ -57128,152 +57077,152 @@
     </row>
     <row r="136" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A136" s="1" t="s">
+        <v>3949</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>4646</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>4647</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>4648</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>4649</v>
       </c>
     </row>
     <row r="137" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A137" s="1" t="s">
-        <v>3953</v>
+        <v>3947</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>4649</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>4650</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="D137" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>4651</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E137" s="1" t="s">
+    </row>
+    <row r="138" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A138" s="1" t="s">
         <v>4652</v>
       </c>
-    </row>
-    <row r="138" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A138" s="1" t="s">
+      <c r="B138" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>4653</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="D138" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>4654</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>4655</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>4656</v>
       </c>
     </row>
     <row r="139" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A139" s="1" t="s">
-        <v>3949</v>
+        <v>4655</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>4656</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>4657</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="D139" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>4658</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>4659</v>
       </c>
     </row>
     <row r="140" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A140" s="1" t="s">
-        <v>3947</v>
+        <v>3941</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>4659</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>4660</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="D140" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>4661</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E140" s="1" t="s">
+    </row>
+    <row r="141" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A141" s="1" t="s">
         <v>4662</v>
       </c>
-    </row>
-    <row r="141" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A141" s="1" t="s">
+      <c r="B141" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>4229</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>4663</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>4664</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>4665</v>
       </c>
     </row>
     <row r="142" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A142" s="1" t="s">
+        <v>4664</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>4665</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>4666</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="D142" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>4667</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>4668</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>4669</v>
       </c>
     </row>
     <row r="143" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A143" s="1" t="s">
-        <v>3941</v>
+        <v>3937</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>4668</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>4669</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>4670</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>4671</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>4672</v>
       </c>
     </row>
     <row r="144" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A144" s="1" t="s">
+        <v>4671</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>4672</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>4673</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>4234</v>
-      </c>
       <c r="D144" s="1" t="s">
-        <v>4221</v>
+        <v>4223</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>4674</v>
@@ -57290,636 +57239,636 @@
         <v>4677</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>4678</v>
       </c>
     </row>
-    <row r="146" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="146" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
       <c r="A146" s="1" t="s">
-        <v>3937</v>
+        <v>4679</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>4679</v>
+        <v>4217</v>
       </c>
       <c r="C146" s="1" t="s">
+        <v>4281</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>4680</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>4681</v>
       </c>
     </row>
     <row r="147" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A147" s="1" t="s">
+        <v>4681</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>4682</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>4683</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="D147" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>4684</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>4685</v>
       </c>
     </row>
     <row r="148" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A148" s="1" t="s">
+        <v>3929</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>4685</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>4686</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="D148" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>4687</v>
       </c>
-      <c r="C148" s="1" t="s">
+    </row>
+    <row r="149" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A149" s="1" t="s">
         <v>4688</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E148" s="1" t="s">
+      <c r="B149" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>4278</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>4689</v>
-      </c>
-    </row>
-    <row r="149" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A149" s="1" t="s">
-        <v>4690</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>4289</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>4691</v>
       </c>
     </row>
     <row r="150" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A150" s="1" t="s">
+        <v>4690</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>4691</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>4692</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="D150" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E150" s="1" t="s">
         <v>4693</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>4694</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>4695</v>
       </c>
     </row>
     <row r="151" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A151" s="1" t="s">
-        <v>3929</v>
+        <v>4694</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>4695</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>4696</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="D151" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>4697</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E151" s="1" t="s">
+    </row>
+    <row r="152" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A152" s="1" t="s">
         <v>4698</v>
       </c>
-    </row>
-    <row r="152" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A152" s="1" t="s">
+      <c r="B152" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>4289</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>4699</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>4283</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>4700</v>
       </c>
     </row>
     <row r="153" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A153" s="1" t="s">
+        <v>3923</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>4700</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>4701</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="D153" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E153" s="1" t="s">
         <v>4702</v>
       </c>
-      <c r="C153" s="1" t="s">
+    </row>
+    <row r="154" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A154" s="1" t="s">
         <v>4703</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E153" s="1" t="s">
+      <c r="B154" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>4704</v>
       </c>
-    </row>
-    <row r="154" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A154" s="1" t="s">
+      <c r="D154" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>4705</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>4706</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>4707</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>4708</v>
       </c>
     </row>
     <row r="155" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A155" s="1" t="s">
+        <v>3919</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>4706</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>4707</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>4708</v>
+      </c>
+    </row>
+    <row r="156" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A156" s="1" t="s">
         <v>4709</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B156" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>4710</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>4219</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>4297</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>4710</v>
-      </c>
-    </row>
-    <row r="156" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A156" s="1" t="s">
-        <v>3923</v>
-      </c>
-      <c r="B156" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>4711</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>4712</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>4713</v>
       </c>
     </row>
     <row r="157" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A157" s="1" t="s">
+        <v>3915</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>4712</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>4713</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>4714</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>4715</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>4716</v>
       </c>
     </row>
     <row r="158" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A158" s="1" t="s">
-        <v>3919</v>
+        <v>3911</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>4715</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>4716</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>4717</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>4718</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>4719</v>
       </c>
     </row>
     <row r="159" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A159" s="1" t="s">
+        <v>3909</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>4718</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>4719</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>4720</v>
       </c>
-      <c r="B159" s="1" t="s">
+    </row>
+    <row r="160" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A160" s="1" t="s">
+        <v>4721</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>4440</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>4219</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>4721</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E159" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>4722</v>
       </c>
     </row>
-    <row r="160" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A160" s="1" t="s">
-        <v>3915</v>
-      </c>
-      <c r="B160" s="1" t="s">
+    <row r="161" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A161" s="1" t="s">
         <v>4723</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="B161" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>4724</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E160" s="1" t="s">
+      <c r="D161" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>4725</v>
-      </c>
-    </row>
-    <row r="161" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A161" s="1" t="s">
-        <v>3911</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>4726</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>4727</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>4728</v>
       </c>
     </row>
     <row r="162" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A162" s="1" t="s">
-        <v>3909</v>
+        <v>4726</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>4727</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>4728</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E162" s="1" t="s">
         <v>4729</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>4730</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>4731</v>
       </c>
     </row>
     <row r="163" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A163" s="1" t="s">
+        <v>3903</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>4730</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>4731</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>4732</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>4451</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>4733</v>
       </c>
     </row>
     <row r="164" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A164" s="1" t="s">
+        <v>3901</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>4733</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>4734</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C164" s="1" t="s">
+      <c r="D164" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>4735</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>4736</v>
       </c>
     </row>
     <row r="165" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A165" s="1" t="s">
+        <v>3899</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>4736</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>4737</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="D165" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>4738</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>4739</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>4740</v>
       </c>
     </row>
     <row r="166" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A166" s="1" t="s">
-        <v>3903</v>
+        <v>4739</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>4740</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>4741</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="D166" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E166" s="1" t="s">
         <v>4742</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>4743</v>
       </c>
     </row>
     <row r="167" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A167" s="1" t="s">
-        <v>3901</v>
+        <v>3895</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>4743</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>4744</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="D167" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E167" s="1" t="s">
         <v>4745</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>4746</v>
       </c>
     </row>
     <row r="168" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A168" s="1" t="s">
-        <v>3899</v>
+        <v>3893</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>4746</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>4747</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="D168" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>4748</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>4749</v>
       </c>
     </row>
     <row r="169" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A169" s="1" t="s">
+        <v>3891</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>4749</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>4750</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="D169" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E169" s="1" t="s">
         <v>4751</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>4752</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>4753</v>
       </c>
     </row>
     <row r="170" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A170" s="1" t="s">
-        <v>3895</v>
+        <v>3889</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>4752</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>4753</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E170" s="1" t="s">
         <v>4754</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>4755</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>4756</v>
       </c>
     </row>
     <row r="171" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A171" s="1" t="s">
-        <v>3893</v>
+        <v>3887</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>4755</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>4756</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E171" s="1" t="s">
         <v>4757</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>4758</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>4759</v>
       </c>
     </row>
     <row r="172" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A172" s="1" t="s">
-        <v>3891</v>
+        <v>3885</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>4758</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>4759</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>4760</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>4761</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>4762</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A173" s="1" t="s">
-        <v>3889</v>
+        <v>3883</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>4761</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>4762</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E173" s="1" t="s">
         <v>4763</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>4764</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>4765</v>
       </c>
     </row>
     <row r="174" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A174" s="1" t="s">
-        <v>3887</v>
+        <v>3881</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>4764</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>4765</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E174" s="1" t="s">
         <v>4766</v>
       </c>
-      <c r="C174" s="1" t="s">
+    </row>
+    <row r="175" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A175" s="1" t="s">
         <v>4767</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E174" s="1" t="s">
+      <c r="B175" s="1" t="s">
+        <v>4256</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>4257</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>4214</v>
+      </c>
+      <c r="E175" s="1" t="s">
         <v>4768</v>
-      </c>
-    </row>
-    <row r="175" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A175" s="1" t="s">
-        <v>3885</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>4769</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>4770</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>4771</v>
       </c>
     </row>
     <row r="176" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A176" s="1" t="s">
-        <v>3883</v>
+        <v>3879</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>4772</v>
+        <v>4769</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>4773</v>
+        <v>4770</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>4774</v>
+        <v>4771</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A177" s="1" t="s">
-        <v>3881</v>
+        <v>3877</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>4775</v>
+        <v>4772</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>4776</v>
+        <v>4773</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>4777</v>
+        <v>4774</v>
       </c>
     </row>
     <row r="178" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A178" s="1" t="s">
+        <v>3875</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>4775</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>4776</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>4777</v>
+      </c>
+    </row>
+    <row r="179" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A179" s="1" t="s">
         <v>4778</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>4261</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>4262</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>4216</v>
-      </c>
-      <c r="E178" s="1" t="s">
+      <c r="B179" s="1" t="s">
+        <v>4212</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>4213</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>4214</v>
+      </c>
+      <c r="E179" s="1" t="s">
         <v>4779</v>
-      </c>
-    </row>
-    <row r="179" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A179" s="1" t="s">
-        <v>3879</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>4780</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>4781</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>4782</v>
       </c>
     </row>
     <row r="180" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A180" s="1" t="s">
-        <v>3877</v>
+        <v>4780</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>4781</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>4782</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E180" s="1" t="s">
         <v>4783</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>4784</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>4785</v>
       </c>
     </row>
     <row r="181" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A181" s="1" t="s">
-        <v>3875</v>
+        <v>3871</v>
       </c>
       <c r="B181" s="1" t="s">
+        <v>4784</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>4785</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E181" s="1" t="s">
         <v>4786</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>4787</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>4788</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A182" s="1" t="s">
+        <v>4787</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>4788</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>4789</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>4214</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>4215</v>
-      </c>
       <c r="D182" s="1" t="s">
-        <v>4216</v>
+        <v>4223</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>4790</v>
@@ -57936,7 +57885,7 @@
         <v>4793</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>4794</v>
@@ -57944,7 +57893,7 @@
     </row>
     <row r="184" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A184" s="1" t="s">
-        <v>3871</v>
+        <v>3865</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>4795</v>
@@ -57953,7 +57902,7 @@
         <v>4796</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>4797</v>
@@ -57961,279 +57910,279 @@
     </row>
     <row r="185" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A185" s="1" t="s">
+        <v>3863</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>4798</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C185" s="1" t="s">
         <v>4799</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="D185" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E185" s="1" t="s">
         <v>4800</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>4801</v>
       </c>
     </row>
     <row r="186" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A186" s="1" t="s">
+        <v>4801</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>4802</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="C186" s="1" t="s">
         <v>4803</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="D186" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E186" s="1" t="s">
         <v>4804</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>4805</v>
       </c>
     </row>
     <row r="187" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A187" s="1" t="s">
-        <v>3865</v>
+        <v>3859</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>4805</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>4806</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="D187" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>4807</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E187" s="1" t="s">
+    </row>
+    <row r="188" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A188" s="1" t="s">
         <v>4808</v>
       </c>
-    </row>
-    <row r="188" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A188" s="1" t="s">
-        <v>3863</v>
-      </c>
       <c r="B188" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>4623</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>4809</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>4810</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>4811</v>
       </c>
     </row>
     <row r="189" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A189" s="1" t="s">
+        <v>3857</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>4810</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>4811</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>4812</v>
       </c>
-      <c r="B189" s="1" t="s">
+    </row>
+    <row r="190" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A190" s="1" t="s">
         <v>4813</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="B190" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>4245</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E190" s="1" t="s">
         <v>4814</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>4815</v>
-      </c>
-    </row>
-    <row r="190" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A190" s="1" t="s">
-        <v>3859</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>4816</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>4817</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>4818</v>
       </c>
     </row>
     <row r="191" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A191" s="1" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>4815</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>4816</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>4817</v>
+      </c>
+    </row>
+    <row r="192" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A192" s="1" t="s">
+        <v>4818</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>4289</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E192" s="1" t="s">
         <v>4819</v>
       </c>
-      <c r="B191" s="1" t="s">
+    </row>
+    <row r="193" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A193" s="1" t="s">
+        <v>4376</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>4377</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>4219</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>4634</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E191" s="1" t="s">
+      <c r="E193" s="1" t="s">
         <v>4820</v>
-      </c>
-    </row>
-    <row r="192" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A192" s="1" t="s">
-        <v>3857</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>4821</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>4822</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>4823</v>
-      </c>
-    </row>
-    <row r="193" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A193" s="1" t="s">
-        <v>4824</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>4250</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>4825</v>
       </c>
     </row>
     <row r="194" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A194" s="1" t="s">
-        <v>3855</v>
+        <v>3853</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>4826</v>
+        <v>4821</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>4827</v>
+        <v>4822</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>4828</v>
+        <v>4823</v>
       </c>
     </row>
     <row r="195" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A195" s="1" t="s">
+        <v>3851</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>4824</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>4825</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>4826</v>
+      </c>
+    </row>
+    <row r="196" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A196" s="1" t="s">
+        <v>4827</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>4281</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>4828</v>
+      </c>
+    </row>
+    <row r="197" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A197" s="1" t="s">
         <v>4829</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B197" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>4235</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>4219</v>
       </c>
-      <c r="C195" s="1" t="s">
-        <v>4297</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E195" s="1" t="s">
+      <c r="E197" s="1" t="s">
         <v>4830</v>
-      </c>
-    </row>
-    <row r="196" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A196" s="1" t="s">
-        <v>4387</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>4388</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>4831</v>
-      </c>
-    </row>
-    <row r="197" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A197" s="1" t="s">
-        <v>3853</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>4832</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>4833</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>4834</v>
       </c>
     </row>
     <row r="198" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A198" s="1" t="s">
-        <v>3851</v>
+        <v>4831</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>4835</v>
+        <v>4832</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>4836</v>
+        <v>4833</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>4837</v>
+        <v>4834</v>
       </c>
     </row>
     <row r="199" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A199" s="1" t="s">
+        <v>4835</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>4836</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>4837</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E199" s="1" t="s">
         <v>4838</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>4289</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>4839</v>
       </c>
     </row>
     <row r="200" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A200" s="1" t="s">
+        <v>4839</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>4840</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>4219</v>
-      </c>
       <c r="C200" s="1" t="s">
-        <v>4240</v>
+        <v>4841</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>4221</v>
+        <v>4223</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>4841</v>
+        <v>4842</v>
       </c>
     </row>
     <row r="201" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A201" s="1" t="s">
-        <v>4842</v>
+        <v>3843</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>4843</v>
@@ -58242,7 +58191,7 @@
         <v>4844</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>4845</v>
@@ -58250,211 +58199,211 @@
     </row>
     <row r="202" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A202" s="1" t="s">
+        <v>3841</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>4846</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="C202" s="1" t="s">
         <v>4847</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="D202" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E202" s="1" t="s">
         <v>4848</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>4849</v>
       </c>
     </row>
     <row r="203" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A203" s="1" t="s">
+        <v>4849</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>4850</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="C203" s="1" t="s">
         <v>4851</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="D203" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E203" s="1" t="s">
         <v>4852</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>4853</v>
       </c>
     </row>
     <row r="204" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A204" s="1" t="s">
-        <v>3843</v>
+        <v>3837</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>4853</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>4854</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="D204" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E204" s="1" t="s">
         <v>4855</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>4856</v>
       </c>
     </row>
     <row r="205" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A205" s="1" t="s">
-        <v>3841</v>
+        <v>3835</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>4856</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>4857</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="D205" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E205" s="1" t="s">
         <v>4858</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>4859</v>
       </c>
     </row>
     <row r="206" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A206" s="1" t="s">
+        <v>3833</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>4859</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>4860</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="D206" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E206" s="1" t="s">
         <v>4861</v>
       </c>
-      <c r="C206" s="1" t="s">
+    </row>
+    <row r="207" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A207" s="1" t="s">
         <v>4862</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E206" s="1" t="s">
+      <c r="B207" s="1" t="s">
+        <v>4264</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>4265</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>4214</v>
+      </c>
+      <c r="E207" s="1" t="s">
         <v>4863</v>
-      </c>
-    </row>
-    <row r="207" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A207" s="1" t="s">
-        <v>3837</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>4864</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>4865</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>4866</v>
       </c>
     </row>
     <row r="208" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A208" s="1" t="s">
-        <v>3835</v>
+        <v>3831</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>4864</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>4865</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>4866</v>
+      </c>
+    </row>
+    <row r="209" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A209" s="1" t="s">
         <v>4867</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="B209" s="1" t="s">
         <v>4868</v>
       </c>
-      <c r="D208" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E208" s="1" t="s">
+      <c r="C209" s="1" t="s">
         <v>4869</v>
       </c>
-    </row>
-    <row r="209" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A209" s="1" t="s">
-        <v>3833</v>
-      </c>
-      <c r="B209" s="1" t="s">
+      <c r="D209" s="1" t="s">
+        <v>4214</v>
+      </c>
+      <c r="E209" s="1" t="s">
         <v>4870</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>4871</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>4872</v>
       </c>
     </row>
     <row r="210" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A210" s="1" t="s">
+        <v>3827</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>4871</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>4872</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E210" s="1" t="s">
         <v>4873</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>4269</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>4270</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>4216</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>4874</v>
       </c>
     </row>
     <row r="211" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A211" s="1" t="s">
-        <v>3831</v>
+        <v>3825</v>
       </c>
       <c r="B211" s="1" t="s">
+        <v>4874</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>4875</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="D211" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E211" s="1" t="s">
         <v>4876</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E211" s="1" t="s">
+    </row>
+    <row r="212" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A212" s="1" t="s">
         <v>4877</v>
       </c>
-    </row>
-    <row r="212" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A212" s="1" t="s">
+      <c r="B212" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>4878</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="D212" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E212" s="1" t="s">
         <v>4879</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>4880</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>4216</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>4881</v>
       </c>
     </row>
     <row r="213" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A213" s="1" t="s">
-        <v>3827</v>
+        <v>4880</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>4881</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>4882</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="D213" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E213" s="1" t="s">
         <v>4883</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>4884</v>
       </c>
     </row>
     <row r="214" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A214" s="1" t="s">
-        <v>3825</v>
+        <v>4884</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>4885</v>
@@ -58463,7 +58412,7 @@
         <v>4886</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>4887</v>
@@ -58474,38 +58423,38 @@
         <v>4888</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>4219</v>
+        <v>4889</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>4889</v>
+        <v>4890</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>4221</v>
+        <v>4223</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>4890</v>
+        <v>4891</v>
       </c>
     </row>
     <row r="216" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A216" s="1" t="s">
-        <v>4891</v>
+        <v>4892</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>4892</v>
+        <v>4893</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>4893</v>
+        <v>4894</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>4894</v>
+        <v>4895</v>
       </c>
     </row>
     <row r="217" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A217" s="1" t="s">
-        <v>4895</v>
+        <v>3811</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>4896</v>
@@ -58514,7 +58463,7 @@
         <v>4897</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>4898</v>
@@ -58522,560 +58471,560 @@
     </row>
     <row r="218" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A218" s="1" t="s">
+        <v>3809</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>4899</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="C218" s="1" t="s">
         <v>4900</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="D218" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E218" s="1" t="s">
         <v>4901</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>4902</v>
       </c>
     </row>
     <row r="219" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A219" s="1" t="s">
+        <v>3807</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>4902</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>4903</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="D219" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E219" s="1" t="s">
         <v>4904</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>4905</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>4906</v>
       </c>
     </row>
     <row r="220" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A220" s="1" t="s">
-        <v>3811</v>
+        <v>4905</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>4906</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>4907</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="D220" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E220" s="1" t="s">
         <v>4908</v>
       </c>
-      <c r="D220" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E220" s="1" t="s">
+    </row>
+    <row r="221" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A221" s="1" t="s">
         <v>4909</v>
       </c>
-    </row>
-    <row r="221" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A221" s="1" t="s">
-        <v>3809</v>
-      </c>
       <c r="B221" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>4242</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E221" s="1" t="s">
         <v>4910</v>
       </c>
-      <c r="C221" s="1" t="s">
+    </row>
+    <row r="222" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A222" s="1" t="s">
         <v>4911</v>
       </c>
-      <c r="D221" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E221" s="1" t="s">
+      <c r="B222" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>4235</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E222" s="1" t="s">
         <v>4912</v>
-      </c>
-    </row>
-    <row r="222" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A222" s="1" t="s">
-        <v>3807</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>4913</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>4914</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>4915</v>
       </c>
     </row>
     <row r="223" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A223" s="1" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>4913</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>4914</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>4915</v>
+      </c>
+    </row>
+    <row r="224" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A224" s="1" t="s">
         <v>4916</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B224" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>4226</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E224" s="1" t="s">
         <v>4917</v>
       </c>
-      <c r="C223" s="1" t="s">
+    </row>
+    <row r="225" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A225" s="1" t="s">
         <v>4918</v>
       </c>
-      <c r="D223" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E223" s="1" t="s">
+      <c r="B225" s="1" t="s">
         <v>4919</v>
       </c>
-    </row>
-    <row r="224" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A224" s="1" t="s">
+      <c r="C225" s="1" t="s">
         <v>4920</v>
       </c>
-      <c r="B224" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>4247</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E224" s="1" t="s">
+      <c r="D225" s="1" t="s">
+        <v>4214</v>
+      </c>
+      <c r="E225" s="1" t="s">
         <v>4921</v>
-      </c>
-    </row>
-    <row r="225" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A225" s="1" t="s">
-        <v>4922</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>4240</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>4923</v>
       </c>
     </row>
     <row r="226" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A226" s="1" t="s">
-        <v>3805</v>
+        <v>3801</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>4922</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>4923</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E226" s="1" t="s">
         <v>4924</v>
       </c>
-      <c r="C226" s="1" t="s">
+    </row>
+    <row r="227" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A227" s="1" t="s">
         <v>4925</v>
       </c>
-      <c r="D226" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E226" s="1" t="s">
+      <c r="B227" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>4653</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E227" s="1" t="s">
         <v>4926</v>
       </c>
     </row>
-    <row r="227" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A227" s="1" t="s">
+    <row r="228" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A228" s="1" t="s">
         <v>4927</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B228" s="1" t="s">
+        <v>4928</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>4929</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>4214</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="229" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A229" s="1" t="s">
+        <v>4931</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>4704</v>
+      </c>
+      <c r="D229" s="1" t="s">
         <v>4219</v>
       </c>
-      <c r="C227" s="1" t="s">
-        <v>4231</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>4928</v>
-      </c>
-    </row>
-    <row r="228" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A228" s="1" t="s">
-        <v>4929</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>4930</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>4931</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>4216</v>
-      </c>
-      <c r="E228" s="1" t="s">
+      <c r="E229" s="1" t="s">
         <v>4932</v>
-      </c>
-    </row>
-    <row r="229" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A229" s="1" t="s">
-        <v>3801</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>4933</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>4934</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>4935</v>
       </c>
     </row>
     <row r="230" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A230" s="1" t="s">
+        <v>4933</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>4934</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>4935</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E230" s="1" t="s">
         <v>4936</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>4664</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>4937</v>
       </c>
     </row>
     <row r="231" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A231" s="1" t="s">
+        <v>3795</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>4937</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>4938</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="D231" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E231" s="1" t="s">
         <v>4939</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>4940</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>4216</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>4941</v>
       </c>
     </row>
     <row r="232" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A232" s="1" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>4940</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>4941</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E232" s="1" t="s">
         <v>4942</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>4715</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>4943</v>
       </c>
     </row>
     <row r="233" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A233" s="1" t="s">
+        <v>4943</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>4944</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="C233" s="1" t="s">
         <v>4945</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="D233" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E233" s="1" t="s">
         <v>4946</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>4947</v>
       </c>
     </row>
     <row r="234" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A234" s="1" t="s">
-        <v>3795</v>
+        <v>3791</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>4947</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>4948</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="D234" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E234" s="1" t="s">
         <v>4949</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E234" s="1" t="s">
+    </row>
+    <row r="235" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A235" s="1" t="s">
         <v>4950</v>
       </c>
-    </row>
-    <row r="235" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A235" s="1" t="s">
-        <v>3793</v>
-      </c>
       <c r="B235" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>4278</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E235" s="1" t="s">
         <v>4951</v>
       </c>
-      <c r="C235" s="1" t="s">
+    </row>
+    <row r="236" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A236" s="1" t="s">
         <v>4952</v>
       </c>
-      <c r="D235" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E235" s="1" t="s">
+      <c r="B236" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>4710</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E236" s="1" t="s">
         <v>4953</v>
       </c>
     </row>
-    <row r="236" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A236" s="1" t="s">
+    <row r="237" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A237" s="1" t="s">
         <v>4954</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="B237" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>4229</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E237" s="1" t="s">
         <v>4955</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>4956</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>4957</v>
-      </c>
-    </row>
-    <row r="237" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A237" s="1" t="s">
-        <v>3791</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>4958</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>4959</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>4960</v>
       </c>
     </row>
     <row r="238" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A238" s="1" t="s">
-        <v>4961</v>
+        <v>3789</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>4219</v>
+        <v>4956</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>4283</v>
+        <v>4957</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>4221</v>
+        <v>4223</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>4962</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="239" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A239" s="1" t="s">
-        <v>4963</v>
+        <v>3787</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>4219</v>
+        <v>4959</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>4721</v>
+        <v>4960</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>4221</v>
+        <v>4223</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>4964</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="240" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A240" s="1" t="s">
+        <v>4962</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>4963</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>4964</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E240" s="1" t="s">
         <v>4965</v>
       </c>
-      <c r="B240" s="1" t="s">
+    </row>
+    <row r="241" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A241" s="1" t="s">
+        <v>4966</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>4430</v>
+      </c>
+      <c r="D241" s="1" t="s">
         <v>4219</v>
       </c>
-      <c r="C240" s="1" t="s">
-        <v>4234</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>4966</v>
-      </c>
-    </row>
-    <row r="241" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A241" s="1" t="s">
-        <v>3789</v>
-      </c>
-      <c r="B241" s="1" t="s">
+      <c r="E241" s="1" t="s">
         <v>4967</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>4968</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>4969</v>
       </c>
     </row>
     <row r="242" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A242" s="1" t="s">
-        <v>3787</v>
+        <v>4968</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>4969</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>4970</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="D242" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E242" s="1" t="s">
         <v>4971</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>4972</v>
       </c>
     </row>
     <row r="243" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A243" s="1" t="s">
+        <v>3779</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>4972</v>
+      </c>
+      <c r="C243" s="1" t="s">
         <v>4973</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="D243" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E243" s="1" t="s">
         <v>4974</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>4975</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>4976</v>
       </c>
     </row>
     <row r="244" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A244" s="1" t="s">
+        <v>3781</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>4975</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>4976</v>
+      </c>
+    </row>
+    <row r="245" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A245" s="1" t="s">
         <v>4977</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="B245" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>4281</v>
+      </c>
+      <c r="D245" s="1" t="s">
         <v>4219</v>
       </c>
-      <c r="C244" s="1" t="s">
-        <v>4441</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E244" s="1" t="s">
+      <c r="E245" s="1" t="s">
         <v>4978</v>
       </c>
     </row>
-    <row r="245" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A245" s="1" t="s">
+    <row r="246" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A246" s="1" t="s">
         <v>4979</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B246" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C246" s="1" t="s">
         <v>4980</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="D246" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E246" s="1" t="s">
         <v>4981</v>
       </c>
-      <c r="D245" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E245" s="1" t="s">
+    </row>
+    <row r="247" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A247" s="1" t="s">
         <v>4982</v>
       </c>
-    </row>
-    <row r="246" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A246" s="1" t="s">
-        <v>3779</v>
-      </c>
-      <c r="B246" s="1" t="s">
+      <c r="B247" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>4380</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E247" s="1" t="s">
         <v>4983</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>4984</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>4985</v>
-      </c>
-    </row>
-    <row r="247" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A247" s="1" t="s">
-        <v>3781</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>4986</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>4987</v>
       </c>
     </row>
     <row r="248" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A248" s="1" t="s">
-        <v>4988</v>
+        <v>4984</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>4219</v>
+        <v>4985</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>4289</v>
+        <v>4986</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>4221</v>
+        <v>4223</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>4989</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="249" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A249" s="1" t="s">
+        <v>4988</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>4989</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>4990</v>
       </c>
-      <c r="B249" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C249" s="1" t="s">
+      <c r="D249" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E249" s="1" t="s">
         <v>4991</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>4992</v>
       </c>
     </row>
     <row r="250" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A250" s="1" t="s">
+        <v>3771</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>4992</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>4993</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>4391</v>
-      </c>
       <c r="D250" s="1" t="s">
-        <v>4221</v>
+        <v>4223</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>4994</v>
@@ -59092,7 +59041,7 @@
         <v>4997</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>4998</v>
@@ -59109,7 +59058,7 @@
         <v>5001</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>5002</v>
@@ -59117,7 +59066,7 @@
     </row>
     <row r="253" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A253" s="1" t="s">
-        <v>3771</v>
+        <v>3765</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>5003</v>
@@ -59126,7 +59075,7 @@
         <v>5004</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>5005</v>
@@ -59143,7 +59092,7 @@
         <v>5008</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>5009</v>
@@ -59160,7 +59109,7 @@
         <v>5012</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>5013</v>
@@ -59168,7 +59117,7 @@
     </row>
     <row r="256" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A256" s="1" t="s">
-        <v>3765</v>
+        <v>3761</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>5014</v>
@@ -59177,7 +59126,7 @@
         <v>5015</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>5016</v>
@@ -59185,237 +59134,237 @@
     </row>
     <row r="257" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A257" s="1" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>5017</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="C257" s="1" t="s">
         <v>5018</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="D257" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E257" s="1" t="s">
         <v>5019</v>
       </c>
-      <c r="D257" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E257" s="1" t="s">
+    </row>
+    <row r="258" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A258" s="1" t="s">
         <v>5020</v>
       </c>
-    </row>
-    <row r="258" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A258" s="1" t="s">
+      <c r="B258" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>4235</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E258" s="1" t="s">
         <v>5021</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>5022</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>5023</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>5024</v>
       </c>
     </row>
     <row r="259" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A259" s="1" t="s">
-        <v>3761</v>
+        <v>3757</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>5025</v>
+        <v>5022</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>5026</v>
+        <v>5023</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>5027</v>
+        <v>5024</v>
       </c>
     </row>
     <row r="260" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A260" s="1" t="s">
-        <v>3759</v>
+        <v>3755</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>5028</v>
+        <v>5025</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>5029</v>
+        <v>5026</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>5030</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="261" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A261" s="1" t="s">
+        <v>3753</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>5028</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>5029</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>5030</v>
+      </c>
+    </row>
+    <row r="262" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A262" s="1" t="s">
         <v>5031</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="B262" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>4374</v>
+      </c>
+      <c r="D262" s="1" t="s">
         <v>4219</v>
       </c>
-      <c r="C261" s="1" t="s">
-        <v>4240</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E261" s="1" t="s">
+      <c r="E262" s="1" t="s">
         <v>5032</v>
-      </c>
-    </row>
-    <row r="262" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A262" s="1" t="s">
-        <v>3757</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>5033</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>5034</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>5035</v>
       </c>
     </row>
     <row r="263" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A263" s="1" t="s">
-        <v>3755</v>
+        <v>3751</v>
       </c>
       <c r="B263" s="1" t="s">
+        <v>5033</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>5034</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>5035</v>
+      </c>
+    </row>
+    <row r="264" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A264" s="1" t="s">
         <v>5036</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="B264" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C264" s="1" t="s">
         <v>5037</v>
       </c>
-      <c r="D263" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E263" s="1" t="s">
+      <c r="D264" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E264" s="1" t="s">
         <v>5038</v>
-      </c>
-    </row>
-    <row r="264" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A264" s="1" t="s">
-        <v>3753</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>5039</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>5040</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>5041</v>
       </c>
     </row>
     <row r="265" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A265" s="1" t="s">
-        <v>5042</v>
+        <v>3747</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>4219</v>
+        <v>5039</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>4385</v>
+        <v>5040</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>4221</v>
+        <v>4223</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>5043</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="266" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A266" s="1" t="s">
-        <v>3751</v>
+        <v>3745</v>
       </c>
       <c r="B266" s="1" t="s">
+        <v>5042</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>5043</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E266" s="1" t="s">
         <v>5044</v>
       </c>
-      <c r="C266" s="1" t="s">
+    </row>
+    <row r="267" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A267" s="1" t="s">
         <v>5045</v>
       </c>
-      <c r="D266" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E266" s="1" t="s">
+      <c r="B267" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>4260</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>4261</v>
+      </c>
+      <c r="E267" s="1" t="s">
         <v>5046</v>
-      </c>
-    </row>
-    <row r="267" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A267" s="1" t="s">
-        <v>5047</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>5048</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>5049</v>
       </c>
     </row>
     <row r="268" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A268" s="1" t="s">
-        <v>3747</v>
+        <v>5047</v>
       </c>
       <c r="B268" s="1" t="s">
+        <v>5048</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>5049</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E268" s="1" t="s">
         <v>5050</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>5051</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>5052</v>
       </c>
     </row>
     <row r="269" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A269" s="1" t="s">
-        <v>3745</v>
+        <v>5051</v>
       </c>
       <c r="B269" s="1" t="s">
+        <v>5052</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>5053</v>
       </c>
-      <c r="C269" s="1" t="s">
+      <c r="D269" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E269" s="1" t="s">
         <v>5054</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>5055</v>
       </c>
     </row>
     <row r="270" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A270" s="1" t="s">
+        <v>3737</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>5055</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>5056</v>
       </c>
-      <c r="B270" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>4265</v>
-      </c>
       <c r="D270" s="1" t="s">
-        <v>4266</v>
+        <v>4223</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>5057</v>
@@ -59423,407 +59372,407 @@
     </row>
     <row r="271" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A271" s="1" t="s">
+        <v>3735</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>5058</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="C271" s="1" t="s">
         <v>5059</v>
       </c>
-      <c r="C271" s="1" t="s">
+      <c r="D271" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E271" s="1" t="s">
         <v>5060</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>5061</v>
       </c>
     </row>
     <row r="272" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A272" s="1" t="s">
+        <v>3733</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>5061</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>5062</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="D272" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E272" s="1" t="s">
         <v>5063</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>5064</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>5065</v>
       </c>
     </row>
     <row r="273" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A273" s="1" t="s">
-        <v>3737</v>
+        <v>3731</v>
       </c>
       <c r="B273" s="1" t="s">
+        <v>5064</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>5065</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E273" s="1" t="s">
         <v>5066</v>
       </c>
-      <c r="C273" s="1" t="s">
+    </row>
+    <row r="274" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A274" s="1" t="s">
         <v>5067</v>
       </c>
-      <c r="D273" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E273" s="1" t="s">
+      <c r="B274" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C274" s="1" t="s">
         <v>5068</v>
       </c>
-    </row>
-    <row r="274" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A274" s="1" t="s">
-        <v>3735</v>
-      </c>
-      <c r="B274" s="1" t="s">
+      <c r="D274" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E274" s="1" t="s">
         <v>5069</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>5070</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>5071</v>
       </c>
     </row>
     <row r="275" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A275" s="1" t="s">
-        <v>3733</v>
+        <v>3727</v>
       </c>
       <c r="B275" s="1" t="s">
+        <v>5070</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>5071</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E275" s="1" t="s">
         <v>5072</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>5073</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>5074</v>
       </c>
     </row>
     <row r="276" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A276" s="1" t="s">
-        <v>3731</v>
+        <v>3725</v>
       </c>
       <c r="B276" s="1" t="s">
+        <v>5073</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>5074</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E276" s="1" t="s">
         <v>5075</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>5076</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>5077</v>
       </c>
     </row>
     <row r="277" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A277" s="1" t="s">
+        <v>3723</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>5076</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>5077</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E277" s="1" t="s">
         <v>5078</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>5079</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>5080</v>
       </c>
     </row>
     <row r="278" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A278" s="1" t="s">
-        <v>3727</v>
+        <v>3721</v>
       </c>
       <c r="B278" s="1" t="s">
+        <v>5079</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>5080</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E278" s="1" t="s">
         <v>5081</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>5082</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>5083</v>
       </c>
     </row>
     <row r="279" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A279" s="1" t="s">
-        <v>3725</v>
+        <v>3719</v>
       </c>
       <c r="B279" s="1" t="s">
+        <v>5082</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>5083</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E279" s="1" t="s">
         <v>5084</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>5085</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>5086</v>
       </c>
     </row>
     <row r="280" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A280" s="1" t="s">
-        <v>3723</v>
+        <v>5085</v>
       </c>
       <c r="B280" s="1" t="s">
+        <v>5086</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>5087</v>
       </c>
-      <c r="C280" s="1" t="s">
+      <c r="D280" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E280" s="1" t="s">
         <v>5088</v>
       </c>
-      <c r="D280" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E280" s="1" t="s">
+    </row>
+    <row r="281" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A281" s="1" t="s">
         <v>5089</v>
       </c>
-    </row>
-    <row r="281" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A281" s="1" t="s">
-        <v>3721</v>
-      </c>
       <c r="B281" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C281" s="1" t="s">
         <v>5090</v>
       </c>
-      <c r="C281" s="1" t="s">
+      <c r="D281" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E281" s="1" t="s">
         <v>5091</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>5092</v>
       </c>
     </row>
     <row r="282" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A282" s="1" t="s">
-        <v>3719</v>
+        <v>3713</v>
       </c>
       <c r="B282" s="1" t="s">
+        <v>5092</v>
+      </c>
+      <c r="C282" s="1" t="s">
         <v>5093</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="D282" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E282" s="1" t="s">
         <v>5094</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E282" s="1" t="s">
-        <v>5095</v>
       </c>
     </row>
     <row r="283" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A283" s="1" t="s">
+        <v>3711</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>5095</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>5096</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="D283" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E283" s="1" t="s">
         <v>5097</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>5098</v>
-      </c>
-      <c r="D283" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>5099</v>
       </c>
     </row>
     <row r="284" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A284" s="1" t="s">
+        <v>3709</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>5098</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>5099</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E284" s="1" t="s">
         <v>5100</v>
       </c>
-      <c r="B284" s="1" t="s">
+    </row>
+    <row r="285" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A285" s="1" t="s">
+        <v>5101</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>5102</v>
+      </c>
+      <c r="D285" s="1" t="s">
         <v>4219</v>
       </c>
-      <c r="C284" s="1" t="s">
-        <v>5101</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>5102</v>
-      </c>
-    </row>
-    <row r="285" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A285" s="1" t="s">
-        <v>3713</v>
-      </c>
-      <c r="B285" s="1" t="s">
+      <c r="E285" s="1" t="s">
         <v>5103</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>5104</v>
-      </c>
-      <c r="D285" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>5105</v>
       </c>
     </row>
     <row r="286" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A286" s="1" t="s">
-        <v>3711</v>
+        <v>3705</v>
       </c>
       <c r="B286" s="1" t="s">
+        <v>5104</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>5105</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E286" s="1" t="s">
         <v>5106</v>
       </c>
-      <c r="C286" s="1" t="s">
+    </row>
+    <row r="287" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A287" s="1" t="s">
         <v>5107</v>
       </c>
-      <c r="D286" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E286" s="1" t="s">
+      <c r="B287" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>4623</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E287" s="1" t="s">
         <v>5108</v>
-      </c>
-    </row>
-    <row r="287" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A287" s="1" t="s">
-        <v>3709</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>5109</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>5110</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>5111</v>
       </c>
     </row>
     <row r="288" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A288" s="1" t="s">
-        <v>5112</v>
+        <v>3703</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>4219</v>
+        <v>5109</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>5113</v>
+        <v>5110</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>4221</v>
+        <v>4223</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>5114</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="289" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A289" s="1" t="s">
-        <v>3705</v>
+        <v>3701</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>5115</v>
+        <v>5112</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>5116</v>
+        <v>5113</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>5117</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="290" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A290" s="1" t="s">
+        <v>3699</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>5115</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>5116</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>5117</v>
+      </c>
+    </row>
+    <row r="291" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A291" s="1" t="s">
         <v>5118</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="B291" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>5119</v>
+      </c>
+      <c r="D291" s="1" t="s">
         <v>4219</v>
       </c>
-      <c r="C290" s="1" t="s">
-        <v>4634</v>
-      </c>
-      <c r="D290" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E290" s="1" t="s">
-        <v>5119</v>
-      </c>
-    </row>
-    <row r="291" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A291" s="1" t="s">
-        <v>3703</v>
-      </c>
-      <c r="B291" s="1" t="s">
+      <c r="E291" s="1" t="s">
         <v>5120</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>5121</v>
-      </c>
-      <c r="D291" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>5122</v>
       </c>
     </row>
     <row r="292" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A292" s="1" t="s">
-        <v>3701</v>
+        <v>5121</v>
       </c>
       <c r="B292" s="1" t="s">
+        <v>5122</v>
+      </c>
+      <c r="C292" s="1" t="s">
         <v>5123</v>
       </c>
-      <c r="C292" s="1" t="s">
+      <c r="D292" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E292" s="1" t="s">
         <v>5124</v>
       </c>
-      <c r="D292" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E292" s="1" t="s">
+    </row>
+    <row r="293" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A293" s="1" t="s">
         <v>5125</v>
       </c>
-    </row>
-    <row r="293" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A293" s="1" t="s">
-        <v>3699</v>
-      </c>
       <c r="B293" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>5126</v>
       </c>
-      <c r="C293" s="1" t="s">
+      <c r="D293" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E293" s="1" t="s">
         <v>5127</v>
-      </c>
-      <c r="D293" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>5128</v>
       </c>
     </row>
     <row r="294" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A294" s="1" t="s">
+        <v>5128</v>
+      </c>
+      <c r="B294" s="1" t="s">
         <v>5129</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>4219</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>5130</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>4221</v>
+        <v>4223</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>5131</v>
@@ -59840,83 +59789,83 @@
         <v>5134</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>5135</v>
       </c>
     </row>
-    <row r="296" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="296" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
       <c r="A296" s="1" t="s">
         <v>5136</v>
       </c>
       <c r="B296" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>4229</v>
+      </c>
+      <c r="D296" s="1" t="s">
         <v>4219</v>
       </c>
-      <c r="C296" s="1" t="s">
+      <c r="E296" s="1" t="s">
         <v>5137</v>
-      </c>
-      <c r="D296" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>5138</v>
       </c>
     </row>
     <row r="297" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A297" s="1" t="s">
+        <v>3685</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>5138</v>
+      </c>
+      <c r="C297" s="1" t="s">
         <v>5139</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="D297" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E297" s="1" t="s">
         <v>5140</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>5141</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>5142</v>
       </c>
     </row>
     <row r="298" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A298" s="1" t="s">
+        <v>5141</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>5142</v>
+      </c>
+      <c r="C298" s="1" t="s">
         <v>5143</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="D298" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E298" s="1" t="s">
         <v>5144</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>5145</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E298" s="1" t="s">
-        <v>5146</v>
       </c>
     </row>
     <row r="299" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A299" s="1" t="s">
+        <v>3679</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>5145</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>5146</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E299" s="1" t="s">
         <v>5147</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>4234</v>
-      </c>
-      <c r="D299" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E299" s="1" t="s">
-        <v>5148</v>
       </c>
     </row>
     <row r="300" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A300" s="1" t="s">
-        <v>3685</v>
+        <v>5148</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>5149</v>
@@ -59925,13 +59874,13 @@
         <v>5150</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>5151</v>
       </c>
     </row>
-    <row r="301" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="301" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
       <c r="A301" s="1" t="s">
         <v>5152</v>
       </c>
@@ -59942,7 +59891,7 @@
         <v>5154</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>4225</v>
+        <v>4214</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>5155</v>
@@ -59950,7 +59899,7 @@
     </row>
     <row r="302" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A302" s="1" t="s">
-        <v>3679</v>
+        <v>3673</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>5156</v>
@@ -59959,100 +59908,100 @@
         <v>5157</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>5158</v>
       </c>
     </row>
-    <row r="303" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="303" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
       <c r="A303" s="1" t="s">
         <v>5159</v>
       </c>
       <c r="B303" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>4235</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E303" s="1" t="s">
         <v>5160</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>5161</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>5162</v>
       </c>
     </row>
     <row r="304" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A304" s="1" t="s">
+        <v>3671</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>5161</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>5162</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E304" s="1" t="s">
         <v>5163</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>5164</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>5165</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>4216</v>
-      </c>
-      <c r="E304" s="1" t="s">
-        <v>5166</v>
       </c>
     </row>
     <row r="305" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A305" s="1" t="s">
-        <v>3673</v>
+        <v>3669</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>5167</v>
+        <v>5164</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>5168</v>
+        <v>5165</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>5169</v>
+        <v>5166</v>
       </c>
     </row>
     <row r="306" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A306" s="1" t="s">
-        <v>5170</v>
+        <v>3667</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>4219</v>
+        <v>5167</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>4240</v>
+        <v>5168</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>4221</v>
+        <v>4223</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>5171</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="307" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A307" s="1" t="s">
-        <v>3671</v>
+        <v>5170</v>
       </c>
       <c r="B307" s="1" t="s">
+        <v>5171</v>
+      </c>
+      <c r="C307" s="1" t="s">
         <v>5172</v>
       </c>
-      <c r="C307" s="1" t="s">
+      <c r="D307" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E307" s="1" t="s">
         <v>5173</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E307" s="1" t="s">
-        <v>5174</v>
       </c>
     </row>
     <row r="308" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A308" s="1" t="s">
-        <v>3669</v>
+        <v>5174</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>5175</v>
@@ -60061,7 +60010,7 @@
         <v>5176</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>5177</v>
@@ -60069,41 +60018,41 @@
     </row>
     <row r="309" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A309" s="1" t="s">
-        <v>3667</v>
+        <v>5178</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>5178</v>
+        <v>5179</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>5179</v>
+        <v>5180</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>5180</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="310" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A310" s="1" t="s">
-        <v>5181</v>
+        <v>5182</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>5182</v>
+        <v>5183</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>5183</v>
+        <v>5184</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>5184</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="311" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A311" s="1" t="s">
-        <v>5185</v>
+        <v>3657</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>5186</v>
@@ -60112,7 +60061,7 @@
         <v>5187</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>5188</v>
@@ -60120,279 +60069,279 @@
     </row>
     <row r="312" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A312" s="1" t="s">
+        <v>3655</v>
+      </c>
+      <c r="B312" s="1" t="s">
         <v>5189</v>
       </c>
-      <c r="B312" s="1" t="s">
+      <c r="C312" s="1" t="s">
         <v>5190</v>
       </c>
-      <c r="C312" s="1" t="s">
+      <c r="D312" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E312" s="1" t="s">
         <v>5191</v>
       </c>
-      <c r="D312" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E312" s="1" t="s">
+    </row>
+    <row r="313" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A313" s="1" t="s">
         <v>5192</v>
       </c>
-    </row>
-    <row r="313" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A313" s="1" t="s">
+      <c r="B313" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>4374</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E313" s="1" t="s">
         <v>5193</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>5194</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>5195</v>
-      </c>
-      <c r="D313" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E313" s="1" t="s">
-        <v>5196</v>
       </c>
     </row>
     <row r="314" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A314" s="1" t="s">
-        <v>3657</v>
+        <v>5194</v>
       </c>
       <c r="B314" s="1" t="s">
+        <v>5195</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>5196</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E314" s="1" t="s">
         <v>5197</v>
       </c>
-      <c r="C314" s="1" t="s">
+    </row>
+    <row r="315" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A315" s="1" t="s">
         <v>5198</v>
       </c>
-      <c r="D314" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E314" s="1" t="s">
+      <c r="B315" s="1" t="s">
+        <v>4256</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>4257</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>4214</v>
+      </c>
+      <c r="E315" s="1" t="s">
         <v>5199</v>
       </c>
     </row>
-    <row r="315" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A315" s="1" t="s">
-        <v>3655</v>
-      </c>
-      <c r="B315" s="1" t="s">
+    <row r="316" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A316" s="1" t="s">
         <v>5200</v>
       </c>
-      <c r="C315" s="1" t="s">
+      <c r="B316" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C316" s="1" t="s">
         <v>5201</v>
       </c>
-      <c r="D315" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E315" s="1" t="s">
+      <c r="D316" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E316" s="1" t="s">
         <v>5202</v>
-      </c>
-    </row>
-    <row r="316" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A316" s="1" t="s">
-        <v>5203</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>4385</v>
-      </c>
-      <c r="D316" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>5204</v>
       </c>
     </row>
     <row r="317" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A317" s="1" t="s">
+        <v>5203</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>5204</v>
+      </c>
+      <c r="C317" s="1" t="s">
         <v>5205</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="D317" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E317" s="1" t="s">
         <v>5206</v>
       </c>
-      <c r="C317" s="1" t="s">
+    </row>
+    <row r="318" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A318" s="1" t="s">
         <v>5207</v>
       </c>
-      <c r="D317" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E317" s="1" t="s">
+      <c r="B318" s="1" t="s">
+        <v>4238</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>4239</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>4214</v>
+      </c>
+      <c r="E318" s="1" t="s">
         <v>5208</v>
-      </c>
-    </row>
-    <row r="318" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A318" s="1" t="s">
-        <v>5209</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>4261</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>4262</v>
-      </c>
-      <c r="D318" s="1" t="s">
-        <v>4216</v>
-      </c>
-      <c r="E318" s="1" t="s">
-        <v>5210</v>
       </c>
     </row>
     <row r="319" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A319" s="1" t="s">
+        <v>3647</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>5209</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>5210</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E319" s="1" t="s">
         <v>5211</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>5212</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>4221</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>5213</v>
       </c>
     </row>
     <row r="320" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A320" s="1" t="s">
+        <v>3645</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>5212</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>5213</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E320" s="1" t="s">
         <v>5214</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>5215</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>5216</v>
-      </c>
-      <c r="D320" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E320" s="1" t="s">
-        <v>5217</v>
       </c>
     </row>
     <row r="321" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A321" s="1" t="s">
+        <v>3643</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>5215</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>5216</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>5217</v>
+      </c>
+    </row>
+    <row r="322" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A322" s="1" t="s">
         <v>5218</v>
       </c>
-      <c r="B321" s="1" t="s">
-        <v>4243</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>4244</v>
-      </c>
-      <c r="D321" s="1" t="s">
-        <v>4216</v>
-      </c>
-      <c r="E321" s="1" t="s">
+      <c r="B322" s="1" t="s">
+        <v>4264</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>4265</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>4214</v>
+      </c>
+      <c r="E322" s="1" t="s">
         <v>5219</v>
-      </c>
-    </row>
-    <row r="322" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A322" s="1" t="s">
-        <v>3647</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>5220</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>5221</v>
-      </c>
-      <c r="D322" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E322" s="1" t="s">
-        <v>5222</v>
       </c>
     </row>
     <row r="323" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A323" s="1" t="s">
-        <v>3645</v>
+        <v>3641</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>5223</v>
+        <v>5220</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>5224</v>
+        <v>5221</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>5225</v>
+        <v>5222</v>
       </c>
     </row>
     <row r="324" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A324" s="1" t="s">
-        <v>3643</v>
+        <v>5223</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>5224</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>5225</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E324" s="1" t="s">
         <v>5226</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>5227</v>
-      </c>
-      <c r="D324" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>5228</v>
       </c>
     </row>
     <row r="325" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A325" s="1" t="s">
+        <v>3637</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>5227</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>5228</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E325" s="1" t="s">
         <v>5229</v>
       </c>
-      <c r="B325" s="1" t="s">
-        <v>4269</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>4270</v>
-      </c>
-      <c r="D325" s="1" t="s">
-        <v>4216</v>
-      </c>
-      <c r="E325" s="1" t="s">
+    </row>
+    <row r="326" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A326" s="1" t="s">
         <v>5230</v>
       </c>
-    </row>
-    <row r="326" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A326" s="1" t="s">
-        <v>3641</v>
-      </c>
       <c r="B326" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C326" s="1" t="s">
         <v>5231</v>
       </c>
-      <c r="C326" s="1" t="s">
+      <c r="D326" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E326" s="1" t="s">
         <v>5232</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E326" s="1" t="s">
-        <v>5233</v>
       </c>
     </row>
     <row r="327" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A327" s="1" t="s">
+        <v>5233</v>
+      </c>
+      <c r="B327" s="1" t="s">
         <v>5234</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="C327" s="1" t="s">
         <v>5235</v>
       </c>
-      <c r="C327" s="1" t="s">
+      <c r="D327" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E327" s="1" t="s">
         <v>5236</v>
-      </c>
-      <c r="D327" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E327" s="1" t="s">
-        <v>5237</v>
       </c>
     </row>
     <row r="328" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A328" s="1" t="s">
-        <v>3637</v>
+        <v>5237</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>5238</v>
@@ -60401,7 +60350,7 @@
         <v>5239</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>5240</v>
@@ -60409,296 +60358,250 @@
     </row>
     <row r="329" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A329" s="1" t="s">
+        <v>3629</v>
+      </c>
+      <c r="B329" s="1" t="s">
         <v>5241</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>4219</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>5242</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>4221</v>
+        <v>4223</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>5243</v>
       </c>
     </row>
-    <row r="330" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="330" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
       <c r="A330" s="1" t="s">
         <v>5244</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C330" s="1" t="s">
         <v>5245</v>
       </c>
-      <c r="C330" s="1" t="s">
+      <c r="D330" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E330" s="1" t="s">
         <v>5246</v>
-      </c>
-      <c r="D330" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E330" s="1" t="s">
-        <v>5247</v>
       </c>
     </row>
     <row r="331" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A331" s="1" t="s">
+        <v>3625</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>5247</v>
+      </c>
+      <c r="C331" s="1" t="s">
         <v>5248</v>
       </c>
-      <c r="B331" s="1" t="s">
+      <c r="D331" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E331" s="1" t="s">
         <v>5249</v>
       </c>
-      <c r="C331" s="1" t="s">
+    </row>
+    <row r="332" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A332" s="1" t="s">
         <v>5250</v>
       </c>
-      <c r="D331" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E331" s="1" t="s">
+      <c r="B332" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>4878</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E332" s="1" t="s">
         <v>5251</v>
-      </c>
-    </row>
-    <row r="332" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A332" s="1" t="s">
-        <v>3629</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>5252</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>5253</v>
-      </c>
-      <c r="D332" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E332" s="1" t="s">
-        <v>5254</v>
       </c>
     </row>
     <row r="333" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A333" s="1" t="s">
-        <v>5255</v>
+        <v>3623</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>4219</v>
+        <v>5252</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>5256</v>
+        <v>5253</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>4221</v>
+        <v>4223</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>5257</v>
+        <v>5254</v>
       </c>
     </row>
     <row r="334" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A334" s="1" t="s">
-        <v>3625</v>
+        <v>3621</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>5258</v>
+        <v>5255</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>5259</v>
+        <v>5256</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>5260</v>
+        <v>5257</v>
       </c>
     </row>
     <row r="335" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A335" s="1" t="s">
-        <v>5261</v>
+        <v>3619</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>4219</v>
+        <v>5258</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>4889</v>
+        <v>5259</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>4221</v>
+        <v>4223</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>5262</v>
+        <v>5260</v>
       </c>
     </row>
     <row r="336" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A336" s="1" t="s">
-        <v>3623</v>
+        <v>3617</v>
       </c>
       <c r="B336" s="1" t="s">
+        <v>5261</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>5262</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E336" s="1" t="s">
         <v>5263</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>5264</v>
-      </c>
-      <c r="D336" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E336" s="1" t="s">
-        <v>5265</v>
       </c>
     </row>
     <row r="337" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A337" s="1" t="s">
-        <v>3621</v>
+        <v>5264</v>
       </c>
       <c r="B337" s="1" t="s">
+        <v>5265</v>
+      </c>
+      <c r="C337" s="1" t="s">
         <v>5266</v>
       </c>
-      <c r="C337" s="1" t="s">
+      <c r="D337" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E337" s="1" t="s">
         <v>5267</v>
       </c>
-      <c r="D337" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E337" s="1" t="s">
+    </row>
+    <row r="338" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:5">
+      <c r="A338" s="1" t="s">
         <v>5268</v>
       </c>
-    </row>
-    <row r="338" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A338" s="1" t="s">
-        <v>3619</v>
-      </c>
       <c r="B338" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>4281</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="E338" s="1" t="s">
         <v>5269</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>5270</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E338" s="1" t="s">
-        <v>5271</v>
       </c>
     </row>
     <row r="339" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A339" s="1" t="s">
-        <v>3617</v>
+        <v>5270</v>
       </c>
       <c r="B339" s="1" t="s">
+        <v>5271</v>
+      </c>
+      <c r="C339" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="C339" s="1" t="s">
+      <c r="D339" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E339" s="1" t="s">
         <v>5273</v>
-      </c>
-      <c r="D339" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E339" s="1" t="s">
-        <v>5274</v>
       </c>
     </row>
     <row r="340" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A340" s="1" t="s">
+        <v>5274</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>4235</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E340" s="1" t="s">
         <v>5275</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>5277</v>
-      </c>
-      <c r="D340" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E340" s="1" t="s">
-        <v>5278</v>
       </c>
     </row>
     <row r="341" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A341" s="1" t="s">
-        <v>5279</v>
+        <v>3613</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>4219</v>
+        <v>5276</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>4289</v>
+        <v>5277</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>4221</v>
+        <v>4223</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>5280</v>
+        <v>5278</v>
       </c>
     </row>
     <row r="342" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A342" s="1" t="s">
+        <v>5279</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>5280</v>
+      </c>
+      <c r="C342" s="1" t="s">
         <v>5281</v>
       </c>
-      <c r="B342" s="1" t="s">
+      <c r="D342" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E342" s="1" t="s">
         <v>5282</v>
       </c>
-      <c r="C342" s="1" t="s">
-        <v>5283</v>
-      </c>
-      <c r="D342" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E342" s="1" t="s">
-        <v>5284</v>
-      </c>
-    </row>
-    <row r="343" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A343" s="1" t="s">
-        <v>5285</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>4219</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>4240</v>
-      </c>
-      <c r="D343" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E343" s="1" t="s">
-        <v>5286</v>
-      </c>
-    </row>
-    <row r="344" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A344" s="1" t="s">
-        <v>3613</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>5287</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>5288</v>
-      </c>
-      <c r="D344" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E344" s="1" t="s">
-        <v>5289</v>
-      </c>
-    </row>
-    <row r="345" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A345" s="1" t="s">
-        <v>5290</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>5291</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>5292</v>
-      </c>
-      <c r="D345" s="1" t="s">
-        <v>4225</v>
-      </c>
-      <c r="E345" s="1" t="s">
-        <v>5293</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E345">
-    <sortState ref="A1:E345">
+  <autoFilter ref="A1:E342">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="学术 - 教程"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A1:E342">
       <sortCondition ref="E1"/>
     </sortState>
     <extLst/>

--- a/.ready/夸克滴滴分享.xlsx
+++ b/.ready/夸克滴滴分享.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\memo\.ready\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D5286C-4E65-4A97-8E85-FA9358C1FBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49048A0-D3BF-405D-B456-B419AB624FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40444,7 +40444,7 @@
   <dimension ref="A1:E282"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.53125" defaultRowHeight="43.8" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/.ready/夸克滴滴分享.xlsx
+++ b/.ready/夸克滴滴分享.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="1637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="1636">
   <si>
     <t>「咒乐园 咒樂園 (2003)」https://www.alipan.com/s/qxARhWEAGj2</t>
   </si>
@@ -4767,9 +4767,6 @@
   </si>
   <si>
     <t>「【imooc-161】React全栈+...r)打造社区Webapp」https://www.alipan.com/s/RsrWgXrA8xF</t>
-  </si>
-  <si>
-    <t>「弱点 The Blind Side (2009).mp4」https://www.alipan.com/s/RUP3XzzDiRb</t>
   </si>
   <si>
     <t>「桥之彼端 Causeway (2022).mp4」https://www.alipan.com/s/TvX3t44GQrd</t>
@@ -5884,10 +5881,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1637"/>
+  <dimension ref="A1:B1636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1628" workbookViewId="0">
-      <selection activeCell="B1636" sqref="B1636"/>
+    <sheetView tabSelected="1" topLeftCell="A1383" workbookViewId="0">
+      <selection activeCell="B1389" sqref="B1389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="85.4601769911504" defaultRowHeight="23.85" customHeight="1" outlineLevelCol="1"/>
@@ -15187,12 +15184,6 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="1637" ht="33.85" customHeight="1" spans="1:2">
-      <c r="A1637" s="2"/>
-      <c r="B1637" s="1" t="s">
-        <v>1636</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/.ready/夸克滴滴分享.xlsx
+++ b/.ready/夸克滴滴分享.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="1636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="1635">
   <si>
     <t>「咒乐园 咒樂園 (2003)」https://www.alipan.com/s/qxARhWEAGj2</t>
   </si>
@@ -4923,9 +4923,6 @@
   </si>
   <si>
     <t>「曲线球.Operation.Curveba....亿万同人字幕组.mp4」https://www.alipan.com/s/37dnWdSWnTU</t>
-  </si>
-  <si>
-    <t>「I''s Pure (2005)日语简体中字」https://www.alipan.com/s/dkCW1puWZtQ</t>
   </si>
   <si>
     <t>「死亡笔记电影系列」https://www.alipan.com/s/S3pyPonbNeP</t>
@@ -5881,10 +5878,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1636"/>
+  <dimension ref="A1:B1635"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1383" workbookViewId="0">
-      <selection activeCell="B1389" sqref="B1389"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="85.4601769911504" defaultRowHeight="23.85" customHeight="1" outlineLevelCol="1"/>
@@ -15178,12 +15175,6 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="1636" ht="33.85" customHeight="1" spans="1:2">
-      <c r="A1636" s="2"/>
-      <c r="B1636" s="1" t="s">
-        <v>1635</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/.ready/夸克滴滴分享.xlsx
+++ b/.ready/夸克滴滴分享.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="1635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="1634">
   <si>
     <t>「咒乐园 咒樂園 (2003)」https://www.alipan.com/s/qxARhWEAGj2</t>
   </si>
@@ -3714,9 +3714,6 @@
   </si>
   <si>
     <t>「【B站-BV11M411B7ac】网络...程实战手把手教你」https://www.alipan.com/s/zM3Y28ZPV3F</t>
-  </si>
-  <si>
-    <t>「渗透 (2013)」https://www.alipan.com/s/UrCiF7DJD6w</t>
   </si>
   <si>
     <t>「【B站-BV1qt4y1h7Ew】前端...pescript项目实战」https://www.alipan.com/s/kGge4Psn4uz</t>
@@ -5878,10 +5875,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1635"/>
+  <dimension ref="A1:B1634"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A1221" workbookViewId="0">
+      <selection activeCell="B1227" sqref="B1227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="85.4601769911504" defaultRowHeight="23.85" customHeight="1" outlineLevelCol="1"/>
@@ -15169,12 +15166,6 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="1635" ht="33.85" customHeight="1" spans="1:2">
-      <c r="A1635" s="2"/>
-      <c r="B1635" s="1" t="s">
-        <v>1634</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/.ready/夸克滴滴分享.xlsx
+++ b/.ready/夸克滴滴分享.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18900" windowHeight="8055"/>
+    <workbookView windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="阿里历史分享截止2025-03-08" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="1634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="1633">
   <si>
     <t>「咒乐园 咒樂園 (2003)」https://www.alipan.com/s/qxARhWEAGj2</t>
   </si>
@@ -4536,9 +4523,6 @@
   </si>
   <si>
     <t>「【爆疯教育】网站赚钱项目4.0：网站运营与盈利」https://www.alipan.com/s/tyCtuCHT1QP</t>
-  </si>
-  <si>
-    <t>「请回答1988 응답하라 1988 (2015)」https://www.alipan.com/s/xvENKGEmD7J</t>
   </si>
   <si>
     <t>「解读恶之心的人们 악의 마음을 읽는 자들 (2022)」https://www.alipan.com/s/YQjrTDKWDX2</t>
@@ -4934,7 +4918,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -4947,6 +4931,34 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4963,6 +4975,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5002,21 +5022,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5067,28 +5072,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5103,13 +5087,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5127,19 +5153,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5163,18 +5201,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5187,31 +5213,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5235,19 +5237,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5271,12 +5261,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5294,6 +5278,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5326,21 +5325,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5399,148 +5383,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5558,52 +5542,52 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
@@ -5625,7 +5609,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -5875,18 +5859,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1634"/>
+  <dimension ref="A1:B1633"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1221" workbookViewId="0">
-      <selection activeCell="B1227" sqref="B1227"/>
+    <sheetView tabSelected="1" topLeftCell="A1493" workbookViewId="0">
+      <selection activeCell="C1502" sqref="C1502"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="85.4601769911504" defaultRowHeight="23.85" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="85.462962962963" defaultRowHeight="23.85" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="43.858407079646" customWidth="1"/>
-    <col min="2" max="2" width="75.2654867256637" style="1" customWidth="1"/>
-    <col min="3" max="3" width="85.4601769911504" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="85.4601769911504" style="2"/>
+    <col min="1" max="1" width="43.8611111111111" customWidth="1"/>
+    <col min="2" max="2" width="75.2685185185185" style="1" customWidth="1"/>
+    <col min="3" max="3" width="85.462962962963" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="85.462962962963" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="33.85" customHeight="1" spans="2:2">
@@ -8449,77 +8433,77 @@
         <v>511</v>
       </c>
     </row>
-    <row r="513" ht="33.85" customHeight="1" spans="1:2">
+    <row r="513" ht="33.85" customHeight="1" spans="2:2">
       <c r="B513" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="514" ht="33.85" customHeight="1" spans="1:2">
+    <row r="514" ht="33.85" customHeight="1" spans="2:2">
       <c r="B514" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="515" ht="33.85" customHeight="1" spans="1:2">
+    <row r="515" ht="33.85" customHeight="1" spans="2:2">
       <c r="B515" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="516" ht="33.85" customHeight="1" spans="1:2">
+    <row r="516" ht="33.85" customHeight="1" spans="2:2">
       <c r="B516" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="517" ht="33.85" customHeight="1" spans="1:2">
+    <row r="517" ht="33.85" customHeight="1" spans="2:2">
       <c r="B517" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="518" ht="33.85" customHeight="1" spans="1:2">
+    <row r="518" ht="33.85" customHeight="1" spans="2:2">
       <c r="B518" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="519" ht="33.85" customHeight="1" spans="1:2">
+    <row r="519" ht="33.85" customHeight="1" spans="2:2">
       <c r="B519" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="520" ht="33.85" customHeight="1" spans="1:2">
+    <row r="520" ht="33.85" customHeight="1" spans="2:2">
       <c r="B520" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="521" ht="33.85" customHeight="1" spans="1:2">
+    <row r="521" ht="33.85" customHeight="1" spans="2:2">
       <c r="B521" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="522" ht="33.85" customHeight="1" spans="1:2">
+    <row r="522" ht="33.85" customHeight="1" spans="2:2">
       <c r="B522" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="523" ht="33.85" customHeight="1" spans="1:2">
+    <row r="523" ht="33.85" customHeight="1" spans="2:2">
       <c r="B523" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="524" ht="33.85" customHeight="1" spans="1:2">
+    <row r="524" ht="33.85" customHeight="1" spans="2:2">
       <c r="B524" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="525" ht="33.85" customHeight="1" spans="1:2">
+    <row r="525" ht="33.85" customHeight="1" spans="2:2">
       <c r="B525" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="526" ht="33.85" customHeight="1" spans="1:2">
+    <row r="526" ht="33.85" customHeight="1" spans="2:2">
       <c r="B526" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="527" ht="33.85" customHeight="1" spans="1:2">
+    <row r="527" ht="33.85" customHeight="1" spans="2:2">
       <c r="B527" s="1" t="s">
         <v>526</v>
       </c>
@@ -15158,12 +15142,6 @@
       <c r="A1633" s="2"/>
       <c r="B1633" s="1" t="s">
         <v>1632</v>
-      </c>
-    </row>
-    <row r="1634" ht="33.85" customHeight="1" spans="1:2">
-      <c r="A1634" s="2"/>
-      <c r="B1634" s="1" t="s">
-        <v>1633</v>
       </c>
     </row>
   </sheetData>

--- a/.ready/夸克滴滴分享.xlsx
+++ b/.ready/夸克滴滴分享.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView windowWidth="18900" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="阿里历史分享截止2025-03-08" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="1633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="1622">
   <si>
     <t>「咒乐园 咒樂園 (2003)」https://www.alipan.com/s/qxARhWEAGj2</t>
   </si>
@@ -1828,9 +1841,6 @@
     <t>「灯鱼·无为法直通车：从0到彻底精通直通车，用无为法思维，永远不会亏损」https://www.alipan.com/s/BxKWUahVNM2</t>
   </si>
   <si>
-    <t>「七人的逃脱 7인의 탈출 (2023)」https://www.alipan.com/s/MtRSuETfcyp</t>
-  </si>
-  <si>
     <t>「【数据技术课堂】深度学习实战训练营（5期）」https://www.alipan.com/s/hKEnvwGaRXF</t>
   </si>
   <si>
@@ -4768,15 +4778,9 @@
     <t>「B站-罗翔：刑法悖论十讲」https://www.alipan.com/s/mvQjjqX8zPm</t>
   </si>
   <si>
-    <t>「人生切割术 第一季 Severa... Season 1 (2022)」https://www.alipan.com/s/n7StrLARGyy</t>
-  </si>
-  <si>
     <t>「【lagou-885】TypeScript 入门实战笔记」https://www.alipan.com/s/1jsvpC6iV5k</t>
   </si>
   <si>
-    <t>「情事缉私档案 情事緝私檔案 (2002)」https://www.alipan.com/s/kFqduJ42VuP</t>
-  </si>
-  <si>
     <t>「【lagou-657】iOS开发进阶」https://www.alipan.com/s/yzErcZXyz6a</t>
   </si>
   <si>
@@ -4867,21 +4871,6 @@
     <t>「【study163-1001386007】W...安全工程师(进阶)」https://www.alipan.com/s/HNb7MyZYSt4</t>
   </si>
   <si>
-    <t>「阶段5：Python自动化测试与部署实战」https://www.alipan.com/s/UEruNRQDF9c</t>
-  </si>
-  <si>
-    <t>「阶段4：Django全栈项目开发实战」https://www.alipan.com/s/VNWFwNPKzez</t>
-  </si>
-  <si>
-    <t>「阶段3：从网页搭建入门Flask全栈项目实战」https://www.alipan.com/s/yzXqV2A8o9w</t>
-  </si>
-  <si>
-    <t>「阶段2：Python数据库开发与实战」https://www.alipan.com/s/fSW2vCLYtc5</t>
-  </si>
-  <si>
-    <t>「阶段1：零基础入门Python」https://www.alipan.com/s/snSH1xSp5bb</t>
-  </si>
-  <si>
     <t>「【51CTO-8360】Python网络...细版）（无答疑）」https://www.alipan.com/s/VU9xZvwqdnk</t>
   </si>
   <si>
@@ -4897,19 +4886,10 @@
     <t>「难以置信 Unbelievable (2019)」https://www.alipan.com/s/ogtrQcP6ydc</t>
   </si>
   <si>
-    <t>「少年法庭 소년 심판 (2022)」https://www.alipan.com/s/NTzWdKmiUrT</t>
-  </si>
-  <si>
-    <t>「人格 Şahsiyet (2018).中字」https://www.alipan.com/s/X329cLHradd</t>
-  </si>
-  <si>
     <t>「曲线球.Operation.Curveba....亿万同人字幕组.mp4」https://www.alipan.com/s/37dnWdSWnTU</t>
   </si>
   <si>
     <t>「死亡笔记电影系列」https://www.alipan.com/s/S3pyPonbNeP</t>
-  </si>
-  <si>
-    <t>「山海情」https://www.alipan.com/s/z9idXVXpzwL</t>
   </si>
   <si>
     <t>「军火女王 第一季 中字」https://www.alipan.com/s/SePYzLUh8Bo</t>
@@ -4918,7 +4898,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -4931,34 +4911,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4975,14 +4927,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5022,6 +4966,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5072,7 +5031,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5087,55 +5067,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5153,31 +5091,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5201,6 +5127,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5213,7 +5151,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5237,7 +5199,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5261,6 +5235,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5278,21 +5258,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5325,6 +5290,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5383,148 +5363,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5542,52 +5522,52 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
@@ -5609,7 +5589,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -5859,18 +5839,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1633"/>
+  <dimension ref="A1:B1622"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1493" workbookViewId="0">
-      <selection activeCell="C1502" sqref="C1502"/>
+    <sheetView tabSelected="1" topLeftCell="A1613" workbookViewId="0">
+      <selection activeCell="B1620" sqref="B1620"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="85.462962962963" defaultRowHeight="23.85" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="85.4601769911504" defaultRowHeight="23.85" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="43.8611111111111" customWidth="1"/>
-    <col min="2" max="2" width="75.2685185185185" style="1" customWidth="1"/>
-    <col min="3" max="3" width="85.462962962963" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="85.462962962963" style="2"/>
+    <col min="1" max="1" width="43.858407079646" customWidth="1"/>
+    <col min="2" max="2" width="75.2654867256637" style="1" customWidth="1"/>
+    <col min="3" max="3" width="85.4601769911504" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="85.4601769911504" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="33.85" customHeight="1" spans="2:2">
@@ -8433,77 +8413,77 @@
         <v>511</v>
       </c>
     </row>
-    <row r="513" ht="33.85" customHeight="1" spans="2:2">
+    <row r="513" ht="33.85" customHeight="1" spans="1:2">
       <c r="B513" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="514" ht="33.85" customHeight="1" spans="2:2">
+    <row r="514" ht="33.85" customHeight="1" spans="1:2">
       <c r="B514" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="515" ht="33.85" customHeight="1" spans="2:2">
+    <row r="515" ht="33.85" customHeight="1" spans="1:2">
       <c r="B515" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="516" ht="33.85" customHeight="1" spans="2:2">
+    <row r="516" ht="33.85" customHeight="1" spans="1:2">
       <c r="B516" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="517" ht="33.85" customHeight="1" spans="2:2">
+    <row r="517" ht="33.85" customHeight="1" spans="1:2">
       <c r="B517" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="518" ht="33.85" customHeight="1" spans="2:2">
+    <row r="518" ht="33.85" customHeight="1" spans="1:2">
       <c r="B518" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="519" ht="33.85" customHeight="1" spans="2:2">
+    <row r="519" ht="33.85" customHeight="1" spans="1:2">
       <c r="B519" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="520" ht="33.85" customHeight="1" spans="2:2">
+    <row r="520" ht="33.85" customHeight="1" spans="1:2">
       <c r="B520" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="521" ht="33.85" customHeight="1" spans="2:2">
+    <row r="521" ht="33.85" customHeight="1" spans="1:2">
       <c r="B521" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="522" ht="33.85" customHeight="1" spans="2:2">
+    <row r="522" ht="33.85" customHeight="1" spans="1:2">
       <c r="B522" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="523" ht="33.85" customHeight="1" spans="2:2">
+    <row r="523" ht="33.85" customHeight="1" spans="1:2">
       <c r="B523" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="524" ht="33.85" customHeight="1" spans="2:2">
+    <row r="524" ht="33.85" customHeight="1" spans="1:2">
       <c r="B524" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="525" ht="33.85" customHeight="1" spans="2:2">
+    <row r="525" ht="33.85" customHeight="1" spans="1:2">
       <c r="B525" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="526" ht="33.85" customHeight="1" spans="2:2">
+    <row r="526" ht="33.85" customHeight="1" spans="1:2">
       <c r="B526" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="527" ht="33.85" customHeight="1" spans="2:2">
+    <row r="527" ht="33.85" customHeight="1" spans="1:2">
       <c r="B527" s="1" t="s">
         <v>526</v>
       </c>
@@ -15076,72 +15056,6 @@
       <c r="A1622" s="2"/>
       <c r="B1622" s="1" t="s">
         <v>1621</v>
-      </c>
-    </row>
-    <row r="1623" ht="33.85" customHeight="1" spans="1:2">
-      <c r="A1623" s="2"/>
-      <c r="B1623" s="1" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="1624" ht="33.85" customHeight="1" spans="1:2">
-      <c r="A1624" s="2"/>
-      <c r="B1624" s="1" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="1625" ht="33.85" customHeight="1" spans="1:2">
-      <c r="A1625" s="2"/>
-      <c r="B1625" s="1" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="1626" ht="33.85" customHeight="1" spans="1:2">
-      <c r="A1626" s="2"/>
-      <c r="B1626" s="1" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="1627" ht="33.85" customHeight="1" spans="1:2">
-      <c r="A1627" s="2"/>
-      <c r="B1627" s="1" t="s">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="1628" ht="33.85" customHeight="1" spans="1:2">
-      <c r="A1628" s="2"/>
-      <c r="B1628" s="1" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="1629" ht="33.85" customHeight="1" spans="1:2">
-      <c r="A1629" s="2"/>
-      <c r="B1629" s="1" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="1630" ht="33.85" customHeight="1" spans="1:2">
-      <c r="A1630" s="2"/>
-      <c r="B1630" s="1" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="1631" ht="33.85" customHeight="1" spans="1:2">
-      <c r="A1631" s="2"/>
-      <c r="B1631" s="1" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="1632" ht="33.85" customHeight="1" spans="1:2">
-      <c r="A1632" s="2"/>
-      <c r="B1632" s="1" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="1633" ht="33.85" customHeight="1" spans="1:2">
-      <c r="A1633" s="2"/>
-      <c r="B1633" s="1" t="s">
-        <v>1632</v>
       </c>
     </row>
   </sheetData>

--- a/.ready/夸克滴滴分享.xlsx
+++ b/.ready/夸克滴滴分享.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18900" windowHeight="8055"/>
+    <workbookView windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="阿里历史分享截止2025-03-08" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="1622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="1621">
   <si>
     <t>「咒乐园 咒樂園 (2003)」https://www.alipan.com/s/qxARhWEAGj2</t>
   </si>
@@ -4611,9 +4598,6 @@
   </si>
   <si>
     <t>「【lagou-522】深度学习入门与实战」https://www.alipan.com/s/FJwSTiZDVa6</t>
-  </si>
-  <si>
-    <t>「亲爱的亚当 親愛的亞當 (2022)」https://www.alipan.com/s/gZngiwDNtP1</t>
   </si>
   <si>
     <t>「【imooc-296】中高级开发...器 MySQL面试指南」https://www.alipan.com/s/i4wXQ5satcE</t>
@@ -4898,7 +4882,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -4911,6 +4895,34 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4927,6 +4939,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4966,21 +4986,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5031,28 +5036,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5067,13 +5051,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5091,19 +5117,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5127,18 +5165,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5151,31 +5177,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5199,19 +5201,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5235,12 +5225,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5258,6 +5242,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5290,21 +5289,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5363,148 +5347,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5522,52 +5506,52 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
@@ -5589,7 +5573,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -5839,18 +5823,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1622"/>
+  <dimension ref="A1:B1621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1613" workbookViewId="0">
-      <selection activeCell="B1620" sqref="B1620"/>
+    <sheetView tabSelected="1" topLeftCell="A1529" workbookViewId="0">
+      <selection activeCell="B1535" sqref="B1535"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="85.4601769911504" defaultRowHeight="23.85" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="85.462962962963" defaultRowHeight="23.85" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="43.858407079646" customWidth="1"/>
-    <col min="2" max="2" width="75.2654867256637" style="1" customWidth="1"/>
-    <col min="3" max="3" width="85.4601769911504" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="85.4601769911504" style="2"/>
+    <col min="1" max="1" width="43.8611111111111" customWidth="1"/>
+    <col min="2" max="2" width="75.2685185185185" style="1" customWidth="1"/>
+    <col min="3" max="3" width="85.462962962963" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="85.462962962963" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="33.85" customHeight="1" spans="2:2">
@@ -8413,77 +8397,77 @@
         <v>511</v>
       </c>
     </row>
-    <row r="513" ht="33.85" customHeight="1" spans="1:2">
+    <row r="513" ht="33.85" customHeight="1" spans="2:2">
       <c r="B513" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="514" ht="33.85" customHeight="1" spans="1:2">
+    <row r="514" ht="33.85" customHeight="1" spans="2:2">
       <c r="B514" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="515" ht="33.85" customHeight="1" spans="1:2">
+    <row r="515" ht="33.85" customHeight="1" spans="2:2">
       <c r="B515" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="516" ht="33.85" customHeight="1" spans="1:2">
+    <row r="516" ht="33.85" customHeight="1" spans="2:2">
       <c r="B516" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="517" ht="33.85" customHeight="1" spans="1:2">
+    <row r="517" ht="33.85" customHeight="1" spans="2:2">
       <c r="B517" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="518" ht="33.85" customHeight="1" spans="1:2">
+    <row r="518" ht="33.85" customHeight="1" spans="2:2">
       <c r="B518" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="519" ht="33.85" customHeight="1" spans="1:2">
+    <row r="519" ht="33.85" customHeight="1" spans="2:2">
       <c r="B519" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="520" ht="33.85" customHeight="1" spans="1:2">
+    <row r="520" ht="33.85" customHeight="1" spans="2:2">
       <c r="B520" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="521" ht="33.85" customHeight="1" spans="1:2">
+    <row r="521" ht="33.85" customHeight="1" spans="2:2">
       <c r="B521" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="522" ht="33.85" customHeight="1" spans="1:2">
+    <row r="522" ht="33.85" customHeight="1" spans="2:2">
       <c r="B522" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="523" ht="33.85" customHeight="1" spans="1:2">
+    <row r="523" ht="33.85" customHeight="1" spans="2:2">
       <c r="B523" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="524" ht="33.85" customHeight="1" spans="1:2">
+    <row r="524" ht="33.85" customHeight="1" spans="2:2">
       <c r="B524" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="525" ht="33.85" customHeight="1" spans="1:2">
+    <row r="525" ht="33.85" customHeight="1" spans="2:2">
       <c r="B525" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="526" ht="33.85" customHeight="1" spans="1:2">
+    <row r="526" ht="33.85" customHeight="1" spans="2:2">
       <c r="B526" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="527" ht="33.85" customHeight="1" spans="1:2">
+    <row r="527" ht="33.85" customHeight="1" spans="2:2">
       <c r="B527" s="1" t="s">
         <v>526</v>
       </c>
@@ -15050,12 +15034,6 @@
       <c r="A1621" s="2"/>
       <c r="B1621" s="1" t="s">
         <v>1620</v>
-      </c>
-    </row>
-    <row r="1622" ht="33.85" customHeight="1" spans="1:2">
-      <c r="A1622" s="2"/>
-      <c r="B1622" s="1" t="s">
-        <v>1621</v>
       </c>
     </row>
   </sheetData>

--- a/.ready/夸克滴滴分享.xlsx
+++ b/.ready/夸克滴滴分享.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="1621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="1620">
   <si>
     <t>「咒乐园 咒樂園 (2003)」https://www.alipan.com/s/qxARhWEAGj2</t>
   </si>
@@ -2642,9 +2642,6 @@
   </si>
   <si>
     <t>「【网易云课堂-1004709021...eator+Nodejs麻将」https://www.alipan.com/s/KcN1FnF6eur</t>
-  </si>
-  <si>
-    <t>「神雕侠侣 神雕俠侶 (1995)」https://www.alipan.com/s/GjVisr4K7TC</t>
   </si>
   <si>
     <t>「【imooc-451】.Net Core ...从0到精通RESTful」https://www.alipan.com/s/KY7NLhbZRkG</t>
@@ -5823,10 +5820,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1621"/>
+  <dimension ref="A1:B1620"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1529" workbookViewId="0">
-      <selection activeCell="B1535" sqref="B1535"/>
+    <sheetView tabSelected="1" topLeftCell="A877" workbookViewId="0">
+      <selection activeCell="B884" sqref="B884"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="85.462962962963" defaultRowHeight="23.85" customHeight="1" outlineLevelCol="1"/>
@@ -15030,12 +15027,6 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="1621" ht="33.85" customHeight="1" spans="1:2">
-      <c r="A1621" s="2"/>
-      <c r="B1621" s="1" t="s">
-        <v>1620</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/.ready/夸克滴滴分享.xlsx
+++ b/.ready/夸克滴滴分享.xlsx
@@ -5822,8 +5822,8 @@
   <sheetPr/>
   <dimension ref="A1:B1620"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A877" workbookViewId="0">
-      <selection activeCell="B884" sqref="B884"/>
+    <sheetView tabSelected="1" topLeftCell="A1598" workbookViewId="0">
+      <selection activeCell="C1605" sqref="C1605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="85.462962962963" defaultRowHeight="23.85" customHeight="1" outlineLevelCol="1"/>
